--- a/resources/БАЗА ДАННЫХ/litefinance/excel/PhanCongKhanh.xlsx
+++ b/resources/БАЗА ДАННЫХ/litefinance/excel/PhanCongKhanh.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,27 +503,27 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2023.11.27 11:00</t>
+          <t>2023.11.27 14:00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.80116</t>
+          <t>1.79526</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2023.11.27 11:54</t>
+          <t>2023.11.27 20:25</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.7979</t>
+          <t>1.79426</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1,99 USD</t>
+          <t>0,61 USD</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -545,27 +545,27 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2023.11.27 10:00</t>
+          <t>2023.11.27 16:00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.79684</t>
+          <t>1.91418</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2023.11.27 11:54</t>
+          <t>2023.11.27 16:55</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.7979</t>
+          <t>1.9112</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-0,64 USD</t>
+          <t>1,96 USD</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -587,27 +587,27 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2023.11.27 09:09</t>
+          <t>2023.11.27 09:49</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.79891</t>
+          <t>1.91041</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2023.11.27 10:00</t>
+          <t>2023.11.27 16:55</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.79724</t>
+          <t>1.9112</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1,02 USD</t>
+          <t>-0,52 USD</t>
         </is>
       </c>
     </row>
@@ -619,37 +619,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>AUDUSD</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2023.11.27 05:00</t>
+          <t>2023.11.27 09:37</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.91768</t>
+          <t>0.66013</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2023.11.27 09:49</t>
+          <t>2023.11.27 14:32</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.91076</t>
+          <t>0.66113</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>4,56 USD</t>
+          <t>1,00 USD</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -671,27 +671,27 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2023.11.23 11:00</t>
+          <t>2023.11.27 13:00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.91349</t>
+          <t>1.79672</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2023.11.27 09:49</t>
+          <t>2023.11.27 13:57</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.91076</t>
+          <t>1.79572</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1,80 USD</t>
+          <t>0,61 USD</t>
         </is>
       </c>
     </row>
@@ -703,37 +703,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2023.11.23 08:28</t>
+          <t>2023.11.27 07:00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.90442</t>
+          <t>1.72216</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2023.11.27 09:49</t>
+          <t>2023.11.27 13:38</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.91076</t>
+          <t>1.72316</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>-4,19 USD</t>
+          <t>0,73 USD</t>
         </is>
       </c>
     </row>
@@ -745,7 +745,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -755,22 +755,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2023.11.27 03:00</t>
+          <t>2023.11.27 08:12</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.65888</t>
+          <t>1.26264</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2023.11.27 09:37</t>
+          <t>2023.11.27 13:10</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.65988</t>
+          <t>1.26364</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -797,27 +797,27 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2023.11.27 04:00</t>
+          <t>2023.11.27 12:00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.80356</t>
+          <t>1.79712</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2023.11.27 09:09</t>
+          <t>2023.11.27 12:49</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.79932</t>
+          <t>1.79612</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2,58 USD</t>
+          <t>0,61 USD</t>
         </is>
       </c>
     </row>
@@ -839,27 +839,27 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2023.11.24 16:41</t>
+          <t>2023.11.27 11:00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.79728</t>
+          <t>1.80116</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2023.11.27 09:09</t>
+          <t>2023.11.27 11:54</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.79932</t>
+          <t>1.7979</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>-1,24 USD</t>
+          <t>1,99 USD</t>
         </is>
       </c>
     </row>
@@ -871,37 +871,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2023.11.24 17:00</t>
+          <t>2023.11.27 10:00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.26139</t>
+          <t>1.79684</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2023.11.27 08:12</t>
+          <t>2023.11.27 11:54</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.26239</t>
+          <t>1.7979</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1,00 USD</t>
+          <t>-0,64 USD</t>
         </is>
       </c>
     </row>
@@ -913,37 +913,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2023.11.24 19:49</t>
+          <t>2023.11.27 09:09</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.72074</t>
+          <t>1.79891</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2023.11.27 07:00</t>
+          <t>2023.11.27 10:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.72174</t>
+          <t>1.79724</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0,73 USD</t>
+          <t>1,02 USD</t>
         </is>
       </c>
     </row>
@@ -960,32 +960,32 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2023.11.27 04:23</t>
+          <t>2023.11.27 05:00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.91647</t>
+          <t>1.91768</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2023.11.27 05:00</t>
+          <t>2023.11.27 09:49</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.91771</t>
+          <t>1.91076</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0,81 USD</t>
+          <t>4,56 USD</t>
         </is>
       </c>
     </row>
@@ -997,37 +997,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2023.11.27 03:32</t>
+          <t>2023.11.23 11:00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.80343</t>
+          <t>1.91349</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2023.11.27 04:26</t>
+          <t>2023.11.27 09:49</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.80443</t>
+          <t>1.91076</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0,61 USD</t>
+          <t>1,80 USD</t>
         </is>
       </c>
     </row>
@@ -1044,32 +1044,32 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2023.11.24 14:15</t>
+          <t>2023.11.23 08:28</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.91498</t>
+          <t>1.90442</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2023.11.27 04:23</t>
+          <t>2023.11.27 09:49</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.91598</t>
+          <t>1.91076</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0,66 USD</t>
+          <t>-4,19 USD</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>AUDUSD</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1091,27 +1091,27 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2023.11.24 02:00</t>
+          <t>2023.11.27 03:00</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.80164</t>
+          <t>0.65888</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2023.11.27 03:32</t>
+          <t>2023.11.27 09:37</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.80301</t>
+          <t>0.65988</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0,83 USD</t>
+          <t>1,00 USD</t>
         </is>
       </c>
     </row>
@@ -1128,32 +1128,32 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2023.11.23 10:59</t>
+          <t>2023.11.27 04:00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.80606</t>
+          <t>1.80356</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2023.11.27 03:32</t>
+          <t>2023.11.27 09:09</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1.80301</t>
+          <t>1.79932</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>-1,85 USD</t>
+          <t>2,58 USD</t>
         </is>
       </c>
     </row>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2023.11.24 17:00</t>
+          <t>2023.11.24 16:41</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.79802</t>
+          <t>1.79728</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2023.11.27 03:32</t>
+          <t>2023.11.27 09:09</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1.80301</t>
+          <t>1.79932</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>3,02 USD</t>
+          <t>-1,24 USD</t>
         </is>
       </c>
     </row>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1217,22 +1217,22 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2023.11.24 15:54</t>
+          <t>2023.11.24 17:00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.65816</t>
+          <t>1.26139</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2023.11.27 02:28</t>
+          <t>2023.11.27 08:12</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.65916</t>
+          <t>1.26239</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1259,27 +1259,27 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2023.11.24 12:00</t>
+          <t>2023.11.24 19:49</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.71988</t>
+          <t>1.72074</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2023.11.24 19:49</t>
+          <t>2023.11.27 07:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1.71826</t>
+          <t>1.72174</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>-1,19 USD</t>
+          <t>0,73 USD</t>
         </is>
       </c>
     </row>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1301,27 +1301,27 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2023.11.24 16:00</t>
+          <t>2023.11.27 04:23</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.71443</t>
+          <t>1.91647</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2023.11.24 19:49</t>
+          <t>2023.11.27 05:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1.71826</t>
+          <t>1.91771</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2,81 USD</t>
+          <t>0,81 USD</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1343,27 +1343,27 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2023.11.24 16:00</t>
+          <t>2023.11.27 03:32</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.26001</t>
+          <t>1.80343</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2023.11.24 17:00</t>
+          <t>2023.11.27 04:26</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1.26117</t>
+          <t>1.80443</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1,16 USD</t>
+          <t>0,61 USD</t>
         </is>
       </c>
     </row>
@@ -1375,37 +1375,37 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2023.11.24 14:00</t>
+          <t>2023.11.24 14:15</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.7987</t>
+          <t>1.91498</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2023.11.24 16:41</t>
+          <t>2023.11.27 04:23</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1.7977</t>
+          <t>1.91598</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0,61 USD</t>
+          <t>0,66 USD</t>
         </is>
       </c>
     </row>
@@ -1417,37 +1417,37 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2023.11.24 15:11</t>
+          <t>2023.11.24 02:00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.36524</t>
+          <t>1.80164</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2023.11.24 16:00</t>
+          <t>2023.11.27 03:32</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1.36084</t>
+          <t>1.80301</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>3,23 USD</t>
+          <t>0,83 USD</t>
         </is>
       </c>
     </row>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1469,27 +1469,27 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2023.11.24 15:11</t>
+          <t>2023.11.23 10:59</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.25853</t>
+          <t>1.80606</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2023.11.24 16:00</t>
+          <t>2023.11.27 03:32</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1.25972</t>
+          <t>1.80301</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>1,19 USD</t>
+          <t>-1,85 USD</t>
         </is>
       </c>
     </row>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1511,27 +1511,27 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2023.11.21 04:21</t>
+          <t>2023.11.24 17:00</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.65831</t>
+          <t>1.79802</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2023.11.24 15:54</t>
+          <t>2023.11.27 03:32</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.65788</t>
+          <t>1.80301</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>-0,43 USD</t>
+          <t>3,02 USD</t>
         </is>
       </c>
     </row>
@@ -1553,27 +1553,27 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2023.11.21 20:00</t>
+          <t>2023.11.24 15:54</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.65525</t>
+          <t>0.65816</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2023.11.24 15:54</t>
+          <t>2023.11.27 02:28</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.65788</t>
+          <t>0.65916</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2,63 USD</t>
+          <t>1,00 USD</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1595,27 +1595,27 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2023.11.24 13:09</t>
+          <t>2023.11.24 12:00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.25725</t>
+          <t>1.71988</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2023.11.24 15:11</t>
+          <t>2023.11.24 19:49</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1.25825</t>
+          <t>1.71826</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>1,00 USD</t>
+          <t>-1,19 USD</t>
         </is>
       </c>
     </row>
@@ -1627,37 +1627,37 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2023.11.23 11:00</t>
+          <t>2023.11.24 16:00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.36827</t>
+          <t>1.71443</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2023.11.24 15:11</t>
+          <t>2023.11.24 19:49</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1.36556</t>
+          <t>1.71826</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>1,98 USD</t>
+          <t>2,81 USD</t>
         </is>
       </c>
     </row>
@@ -1669,37 +1669,37 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2023.11.23 08:34</t>
+          <t>2023.11.24 16:00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.36505</t>
+          <t>1.26001</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2023.11.24 15:11</t>
+          <t>2023.11.24 17:00</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1.36556</t>
+          <t>1.26117</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>-0,37 USD</t>
+          <t>1,16 USD</t>
         </is>
       </c>
     </row>
@@ -1711,37 +1711,37 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2023.11.24 13:47</t>
+          <t>2023.11.24 14:00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.91357</t>
+          <t>1.7987</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2023.11.24 14:15</t>
+          <t>2023.11.24 16:41</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1.91457</t>
+          <t>1.7977</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0,66 USD</t>
+          <t>0,61 USD</t>
         </is>
       </c>
     </row>
@@ -1753,37 +1753,37 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2023.11.23 18:00</t>
+          <t>2023.11.24 15:11</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.91013</t>
+          <t>1.36524</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2023.11.24 13:46</t>
+          <t>2023.11.24 16:00</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>1.91316</t>
+          <t>1.36084</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>1,99 USD</t>
+          <t>3,23 USD</t>
         </is>
       </c>
     </row>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1805,27 +1805,27 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2023.11.23 11:00</t>
+          <t>2023.11.24 15:11</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.91398</t>
+          <t>1.25853</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2023.11.24 13:46</t>
+          <t>2023.11.24 16:00</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>1.91316</t>
+          <t>1.25972</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>-0,54 USD</t>
+          <t>1,19 USD</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>AUDUSD</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1847,27 +1847,27 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2023.11.23 11:00</t>
+          <t>2023.11.21 04:21</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.25597</t>
+          <t>0.65831</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2023.11.24 13:09</t>
+          <t>2023.11.24 15:54</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>1.25697</t>
+          <t>0.65788</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>1,00 USD</t>
+          <t>-0,43 USD</t>
         </is>
       </c>
     </row>
@@ -1879,37 +1879,37 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>AUDUSD</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2023.11.24 11:18</t>
+          <t>2023.11.21 20:00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.79983</t>
+          <t>0.65525</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2023.11.24 13:06</t>
+          <t>2023.11.24 15:54</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>1.79883</t>
+          <t>0.65788</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0,60 USD</t>
+          <t>2,63 USD</t>
         </is>
       </c>
     </row>
@@ -1921,7 +1921,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1931,27 +1931,27 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2023.11.23 11:00</t>
+          <t>2023.11.24 13:09</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1.71878</t>
+          <t>1.25725</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2023.11.24 11:50</t>
+          <t>2023.11.24 15:11</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>1.71978</t>
+          <t>1.25825</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0,73 USD</t>
+          <t>1,00 USD</t>
         </is>
       </c>
     </row>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1973,27 +1973,27 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2023.11.24 02:00</t>
+          <t>2023.11.23 11:00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.80124</t>
+          <t>1.36827</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2023.11.24 11:18</t>
+          <t>2023.11.24 15:11</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1.80024</t>
+          <t>1.36556</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0,60 USD</t>
+          <t>1,98 USD</t>
         </is>
       </c>
     </row>
@@ -2005,7 +2005,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2015,27 +2015,27 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2023.11.23 11:00</t>
+          <t>2023.11.23 08:34</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1.80582</t>
+          <t>1.36505</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2023.11.24 01:52</t>
+          <t>2023.11.24 15:11</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>1.80174</t>
+          <t>1.36556</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2,47 USD</t>
+          <t>-0,37 USD</t>
         </is>
       </c>
     </row>
@@ -2047,37 +2047,37 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2023.11.23 08:00</t>
+          <t>2023.11.24 13:47</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1.79986</t>
+          <t>1.91357</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2023.11.24 01:52</t>
+          <t>2023.11.24 14:15</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>1.80174</t>
+          <t>1.91457</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>-1,14 USD</t>
+          <t>0,66 USD</t>
         </is>
       </c>
     </row>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2099,27 +2099,27 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2023.11.23 10:30</t>
+          <t>2023.11.23 18:00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.71586</t>
+          <t>1.91013</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2023.11.23 11:00</t>
+          <t>2023.11.24 13:46</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>1.71839</t>
+          <t>1.91316</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>1,85 USD</t>
+          <t>1,99 USD</t>
         </is>
       </c>
     </row>
@@ -2141,27 +2141,27 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2023.11.23 10:30</t>
+          <t>2023.11.23 11:00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1.9123</t>
+          <t>1.91398</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2023.11.23 11:00</t>
+          <t>2023.11.24 13:46</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>1.91349</t>
+          <t>1.91316</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0,78 USD</t>
+          <t>-0,54 USD</t>
         </is>
       </c>
     </row>
@@ -2173,7 +2173,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2183,27 +2183,27 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2023.11.22 15:17</t>
+          <t>2023.11.23 11:00</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1.80974</t>
+          <t>1.25597</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2023.11.23 10:59</t>
+          <t>2023.11.24 13:09</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>1.80569</t>
+          <t>1.25697</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>-2,45 USD</t>
+          <t>1,00 USD</t>
         </is>
       </c>
     </row>
@@ -2220,32 +2220,32 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2023.11.23 08:00</t>
+          <t>2023.11.24 11:18</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.8002</t>
+          <t>1.79983</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2023.11.23 10:59</t>
+          <t>2023.11.24 13:06</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>1.80569</t>
+          <t>1.79883</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>3,32 USD</t>
+          <t>0,60 USD</t>
         </is>
       </c>
     </row>
@@ -2257,7 +2257,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2267,27 +2267,27 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2023.11.23 03:00</t>
+          <t>2023.11.23 11:00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.80383</t>
+          <t>1.71878</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2023.11.23 10:59</t>
+          <t>2023.11.24 11:50</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>1.80569</t>
+          <t>1.71978</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>1,13 USD</t>
+          <t>0,73 USD</t>
         </is>
       </c>
     </row>
@@ -2299,37 +2299,37 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2023.11.22 13:17</t>
+          <t>2023.11.24 02:00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.7202</t>
+          <t>1.80124</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2023.11.23 10:30</t>
+          <t>2023.11.24 11:18</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>1.71727</t>
+          <t>1.80024</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>-2,14 USD</t>
+          <t>0,60 USD</t>
         </is>
       </c>
     </row>
@@ -2341,37 +2341,37 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2023.11.22 18:00</t>
+          <t>2023.11.23 11:00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.71228</t>
+          <t>1.80582</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2023.11.23 10:30</t>
+          <t>2023.11.24 01:52</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>1.71727</t>
+          <t>1.80174</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>3,65 USD</t>
+          <t>2,47 USD</t>
         </is>
       </c>
     </row>
@@ -2383,37 +2383,37 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2023.11.22 16:00</t>
+          <t>2023.11.23 08:00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.71604</t>
+          <t>1.79986</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2023.11.23 10:30</t>
+          <t>2023.11.24 01:52</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1.71727</t>
+          <t>1.80174</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>0,90 USD</t>
+          <t>-1,14 USD</t>
         </is>
       </c>
     </row>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2435,27 +2435,27 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2023.11.23 09:29</t>
+          <t>2023.11.23 10:30</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.25263</t>
+          <t>1.71586</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2023.11.23 10:30</t>
+          <t>2023.11.23 11:00</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1.25363</t>
+          <t>1.71839</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>1,00 USD</t>
+          <t>1,85 USD</t>
         </is>
       </c>
     </row>
@@ -2477,27 +2477,27 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2023.11.22 14:00</t>
+          <t>2023.11.23 10:30</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.91042</t>
+          <t>1.9123</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2023.11.23 10:30</t>
+          <t>2023.11.23 11:00</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1.90949</t>
+          <t>1.91349</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>-0,61 USD</t>
+          <t>0,78 USD</t>
         </is>
       </c>
     </row>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2519,27 +2519,27 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2023.11.23 07:00</t>
+          <t>2023.11.22 15:17</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1.90635</t>
+          <t>1.80974</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2023.11.23 10:30</t>
+          <t>2023.11.23 10:59</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>1.90949</t>
+          <t>1.80569</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2,06 USD</t>
+          <t>-2,45 USD</t>
         </is>
       </c>
     </row>
@@ -2551,7 +2551,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2561,27 +2561,27 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2023.11.22 13:12</t>
+          <t>2023.11.23 08:00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1.25448</t>
+          <t>1.8002</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2023.11.23 09:29</t>
+          <t>2023.11.23 10:59</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>1.25242</t>
+          <t>1.80569</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>-2,06 USD</t>
+          <t>3,32 USD</t>
         </is>
       </c>
     </row>
@@ -2593,7 +2593,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2603,27 +2603,27 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2023.11.22 16:00</t>
+          <t>2023.11.23 03:00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.24816</t>
+          <t>1.80383</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2023.11.23 09:29</t>
+          <t>2023.11.23 10:59</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>1.25242</t>
+          <t>1.80569</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>4,26 USD</t>
+          <t>1,13 USD</t>
         </is>
       </c>
     </row>
@@ -2635,37 +2635,37 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2023.11.23 07:00</t>
+          <t>2023.11.22 13:17</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.36632</t>
+          <t>1.7202</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2023.11.23 08:34</t>
+          <t>2023.11.23 10:30</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>1.36532</t>
+          <t>1.71727</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>0,73 USD</t>
+          <t>-2,14 USD</t>
         </is>
       </c>
     </row>
@@ -2677,37 +2677,37 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2023.11.23 03:16</t>
+          <t>2023.11.22 18:00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.9058</t>
+          <t>1.71228</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2023.11.23 08:28</t>
+          <t>2023.11.23 10:30</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1.9048</t>
+          <t>1.71727</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>0,65 USD</t>
+          <t>3,65 USD</t>
         </is>
       </c>
     </row>
@@ -2719,37 +2719,37 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2023.11.23 07:00</t>
+          <t>2023.11.22 16:00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1.80055</t>
+          <t>1.71604</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2023.11.23 07:41</t>
+          <t>2023.11.23 10:30</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1.79955</t>
+          <t>1.71727</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>0,61 USD</t>
+          <t>0,90 USD</t>
         </is>
       </c>
     </row>
@@ -2761,37 +2761,37 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2023.11.22 19:00</t>
+          <t>2023.11.23 09:29</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1.71038</t>
+          <t>1.25263</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2023.11.23 07:37</t>
+          <t>2023.11.23 10:30</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>1.70938</t>
+          <t>1.25363</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>0,73 USD</t>
+          <t>1,00 USD</t>
         </is>
       </c>
     </row>
@@ -2803,37 +2803,37 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2023.11.23 04:00</t>
+          <t>2023.11.22 14:00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1.80199</t>
+          <t>1.91042</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2023.11.23 06:47</t>
+          <t>2023.11.23 10:30</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>1.80099</t>
+          <t>1.90949</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>0,60 USD</t>
+          <t>-0,61 USD</t>
         </is>
       </c>
     </row>
@@ -2845,37 +2845,37 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2023.11.22 21:58</t>
+          <t>2023.11.23 07:00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1.36916</t>
+          <t>1.90635</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2023.11.23 06:21</t>
+          <t>2023.11.23 10:30</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>1.36816</t>
+          <t>1.90949</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>0,73 USD</t>
+          <t>2,06 USD</t>
         </is>
       </c>
     </row>
@@ -2887,37 +2887,37 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2023.11.23 03:00</t>
+          <t>2023.11.22 13:12</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1.80342</t>
+          <t>1.25448</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2023.11.23 04:00</t>
+          <t>2023.11.23 09:29</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>1.80237</t>
+          <t>1.25242</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>0,64 USD</t>
+          <t>-2,06 USD</t>
         </is>
       </c>
     </row>
@@ -2929,37 +2929,37 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2023.11.22 16:45</t>
+          <t>2023.11.22 16:00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1.90722</t>
+          <t>1.24816</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2023.11.23 03:16</t>
+          <t>2023.11.23 09:29</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>1.90622</t>
+          <t>1.25242</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>0,65 USD</t>
+          <t>4,26 USD</t>
         </is>
       </c>
     </row>
@@ -2971,7 +2971,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2981,27 +2981,27 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2023.11.23 02:27</t>
+          <t>2023.11.23 07:00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1.8048</t>
+          <t>1.36632</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2023.11.23 03:00</t>
+          <t>2023.11.23 08:34</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>1.80383</t>
+          <t>1.36532</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>0,59 USD</t>
+          <t>0,73 USD</t>
         </is>
       </c>
     </row>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3023,27 +3023,27 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2023.11.22 15:00</t>
+          <t>2023.11.23 03:16</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>1.80823</t>
+          <t>1.9058</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2023.11.23 02:27</t>
+          <t>2023.11.23 08:28</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>1.80519</t>
+          <t>1.9048</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>1,83 USD</t>
+          <t>0,65 USD</t>
         </is>
       </c>
     </row>
@@ -3065,27 +3065,27 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2023.11.22 12:17</t>
+          <t>2023.11.23 07:00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>1.80434</t>
+          <t>1.80055</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2023.11.23 02:27</t>
+          <t>2023.11.23 07:41</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>1.80519</t>
+          <t>1.79955</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>-0,52 USD</t>
+          <t>0,61 USD</t>
         </is>
       </c>
     </row>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3107,27 +3107,27 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2023.11.21 15:54</t>
+          <t>2023.11.22 19:00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1.36906</t>
+          <t>1.71038</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2023.11.22 21:58</t>
+          <t>2023.11.23 07:37</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>1.3695</t>
+          <t>1.70938</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>-0,32 USD</t>
+          <t>0,73 USD</t>
         </is>
       </c>
     </row>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3149,27 +3149,27 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2023.11.22 08:00</t>
+          <t>2023.11.23 04:00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1.37213</t>
+          <t>1.80199</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2023.11.22 21:58</t>
+          <t>2023.11.23 06:47</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>1.3695</t>
+          <t>1.80099</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>1,92 USD</t>
+          <t>0,60 USD</t>
         </is>
       </c>
     </row>
@@ -3181,7 +3181,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3191,22 +3191,22 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2023.11.22 16:49</t>
+          <t>2023.11.22 21:58</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1.71174</t>
+          <t>1.36916</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2023.11.22 19:00</t>
+          <t>2023.11.23 06:21</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>1.71074</t>
+          <t>1.36816</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3233,39 +3233,39 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2023.11.17 17:00</t>
+          <t>2023.11.23 03:00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1.70683</t>
+          <t>1.80342</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2023.11.22 16:49</t>
+          <t>2023.11.23 04:00</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>1.7121</t>
+          <t>1.80237</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>-3,83 USD</t>
+          <t>0,64 USD</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3275,39 +3275,39 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2023.11.20 16:00</t>
+          <t>2023.11.22 16:45</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1.71619</t>
+          <t>1.90722</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2023.11.22 16:49</t>
+          <t>2023.11.23 03:16</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>1.7121</t>
+          <t>1.90622</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>5,95 USD</t>
+          <t>0,65 USD</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3317,27 +3317,27 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2023.11.21 11:00</t>
+          <t>2023.11.23 02:27</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1.72016</t>
+          <t>1.8048</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2023.11.22 16:49</t>
+          <t>2023.11.23 03:00</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>1.7121</t>
+          <t>1.80383</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>11,73 USD</t>
+          <t>0,59 USD</t>
         </is>
       </c>
     </row>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3359,27 +3359,27 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2023.11.17 09:53</t>
+          <t>2023.11.22 15:00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1.70245</t>
+          <t>1.80823</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2023.11.22 16:49</t>
+          <t>2023.11.23 02:27</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>1.7121</t>
+          <t>1.80519</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>-7,02 USD</t>
+          <t>1,83 USD</t>
         </is>
       </c>
     </row>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3401,27 +3401,27 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2023.11.20 07:00</t>
+          <t>2023.11.22 12:17</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1.71041</t>
+          <t>1.80434</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2023.11.22 16:49</t>
+          <t>2023.11.23 02:27</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>1.7121</t>
+          <t>1.80519</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>-1,22 USD</t>
+          <t>-0,52 USD</t>
         </is>
       </c>
     </row>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3443,27 +3443,27 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2023.11.22 12:10</t>
+          <t>2023.11.21 15:54</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1.90853</t>
+          <t>1.36906</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2023.11.22 16:45</t>
+          <t>2023.11.22 21:58</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>1.90753</t>
+          <t>1.3695</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>0,66 USD</t>
+          <t>-0,32 USD</t>
         </is>
       </c>
     </row>
@@ -3480,32 +3480,32 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2023.11.17 20:00</t>
+          <t>2023.11.22 08:00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>1.37156</t>
+          <t>1.37213</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2023.11.22 16:02</t>
+          <t>2023.11.22 21:58</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>1.37575</t>
+          <t>1.3695</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>3,05 USD</t>
+          <t>1,92 USD</t>
         </is>
       </c>
     </row>
@@ -3517,37 +3517,37 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2023.11.16 18:00</t>
+          <t>2023.11.22 16:49</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1.37774</t>
+          <t>1.71174</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2023.11.22 16:02</t>
+          <t>2023.11.22 19:00</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>1.37575</t>
+          <t>1.71074</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>-1,45 USD</t>
+          <t>0,73 USD</t>
         </is>
       </c>
     </row>
@@ -3559,121 +3559,121 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2023.11.17 10:00</t>
+          <t>2023.11.17 17:00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>1.37466</t>
+          <t>1.70683</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2023.11.22 16:02</t>
+          <t>2023.11.22 16:49</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>1.37575</t>
+          <t>1.7121</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>0,79 USD</t>
+          <t>-3,83 USD</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2023.11.22 12:00</t>
+          <t>2023.11.20 16:00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1.80641</t>
+          <t>1.71619</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2023.11.22 15:17</t>
+          <t>2023.11.22 16:49</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>1.80942</t>
+          <t>1.7121</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>1,81 USD</t>
+          <t>5,95 USD</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2023.11.22 09:00</t>
+          <t>2023.11.21 11:00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1.81023</t>
+          <t>1.72016</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2023.11.22 15:17</t>
+          <t>2023.11.22 16:49</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>1.80942</t>
+          <t>1.7121</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>-0,49 USD</t>
+          <t>11,73 USD</t>
         </is>
       </c>
     </row>
@@ -3685,37 +3685,37 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2023.11.22 13:00</t>
+          <t>2023.11.17 09:53</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1.90996</t>
+          <t>1.70245</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2023.11.22 13:48</t>
+          <t>2023.11.22 16:49</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>1.91096</t>
+          <t>1.7121</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>0,66 USD</t>
+          <t>-7,02 USD</t>
         </is>
       </c>
     </row>
@@ -3732,32 +3732,32 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2023.11.21 14:01</t>
+          <t>2023.11.20 07:00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1.72112</t>
+          <t>1.71041</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2023.11.22 13:17</t>
+          <t>2023.11.22 16:49</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>1.71988</t>
+          <t>1.7121</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>-0,90 USD</t>
+          <t>-1,22 USD</t>
         </is>
       </c>
     </row>
@@ -3769,37 +3769,37 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2023.11.21 17:00</t>
+          <t>2023.11.22 12:10</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>1.71644</t>
+          <t>1.90853</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2023.11.22 13:17</t>
+          <t>2023.11.22 16:45</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>1.71988</t>
+          <t>1.90753</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2,51 USD</t>
+          <t>0,66 USD</t>
         </is>
       </c>
     </row>
@@ -3811,7 +3811,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3821,27 +3821,27 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2023.11.21 11:40</t>
+          <t>2023.11.17 20:00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>1.25499</t>
+          <t>1.37156</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2023.11.22 13:12</t>
+          <t>2023.11.22 16:02</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>1.25432</t>
+          <t>1.37575</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>-0,67 USD</t>
+          <t>3,05 USD</t>
         </is>
       </c>
     </row>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3863,27 +3863,27 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2023.11.22 10:00</t>
+          <t>2023.11.16 18:00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>1.25145</t>
+          <t>1.37774</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2023.11.22 13:12</t>
+          <t>2023.11.22 16:02</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>1.25432</t>
+          <t>1.37575</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2,87 USD</t>
+          <t>-1,45 USD</t>
         </is>
       </c>
     </row>
@@ -3895,37 +3895,37 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2023.11.22 09:00</t>
+          <t>2023.11.17 10:00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>1.81002</t>
+          <t>1.37466</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2023.11.22 12:17</t>
+          <t>2023.11.22 16:02</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>1.80479</t>
+          <t>1.37575</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>3,16 USD</t>
+          <t>0,79 USD</t>
         </is>
       </c>
     </row>
@@ -3942,32 +3942,32 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2023.11.22 06:00</t>
+          <t>2023.11.22 12:00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>1.80591</t>
+          <t>1.80641</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2023.11.22 12:17</t>
+          <t>2023.11.22 15:17</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>1.80479</t>
+          <t>1.80942</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>0,67 USD</t>
+          <t>1,81 USD</t>
         </is>
       </c>
     </row>
@@ -3984,32 +3984,32 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2023.11.22 02:15</t>
+          <t>2023.11.22 09:00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>1.80173</t>
+          <t>1.81023</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2023.11.22 12:17</t>
+          <t>2023.11.22 15:17</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>1.80479</t>
+          <t>1.80942</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>-1,85 USD</t>
+          <t>-0,49 USD</t>
         </is>
       </c>
     </row>
@@ -4026,32 +4026,32 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2023.11.21 17:00</t>
+          <t>2023.11.22 13:00</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>1.91026</t>
+          <t>1.90996</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2023.11.22 12:10</t>
+          <t>2023.11.22 13:48</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>1.90882</t>
+          <t>1.91096</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>0,95 USD</t>
+          <t>0,66 USD</t>
         </is>
       </c>
     </row>
@@ -4063,37 +4063,37 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2023.11.21 16:00</t>
+          <t>2023.11.21 14:01</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>1.90483</t>
+          <t>1.72112</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2023.11.22 12:10</t>
+          <t>2023.11.22 13:17</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>1.90882</t>
+          <t>1.71988</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>-2,62 USD</t>
+          <t>-0,90 USD</t>
         </is>
       </c>
     </row>
@@ -4105,37 +4105,37 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2023.11.22 07:00</t>
+          <t>2023.11.21 17:00</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1.91467</t>
+          <t>1.71644</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2023.11.22 12:10</t>
+          <t>2023.11.22 13:17</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>1.90882</t>
+          <t>1.71988</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>3,85 USD</t>
+          <t>2,51 USD</t>
         </is>
       </c>
     </row>
@@ -4147,7 +4147,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4157,39 +4157,39 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2023.11.22 08:00</t>
+          <t>2023.11.21 11:40</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>1.91599</t>
+          <t>1.25499</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2023.11.22 09:17</t>
+          <t>2023.11.22 13:12</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>1.91699</t>
+          <t>1.25432</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>0,65 USD</t>
+          <t>-0,67 USD</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4199,34 +4199,34 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2023.11.21 10:00</t>
+          <t>2023.11.22 10:00</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>1.80202</t>
+          <t>1.25145</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2023.11.22 09:00</t>
+          <t>2023.11.22 13:12</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>1.81007</t>
+          <t>1.25432</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>9,71 USD</t>
+          <t>2,87 USD</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4236,32 +4236,32 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2023.11.21 04:00</t>
+          <t>2023.11.22 09:00</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>1.8066</t>
+          <t>1.81002</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2023.11.22 09:00</t>
+          <t>2023.11.22 12:17</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>1.81007</t>
+          <t>1.80479</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>4,19 USD</t>
+          <t>3,16 USD</t>
         </is>
       </c>
     </row>
@@ -4278,32 +4278,32 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2023.11.21 02:00</t>
+          <t>2023.11.22 06:00</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>1.81103</t>
+          <t>1.80591</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2023.11.22 09:00</t>
+          <t>2023.11.22 12:17</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>1.81007</t>
+          <t>1.80479</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>-0,58 USD</t>
+          <t>0,67 USD</t>
         </is>
       </c>
     </row>
@@ -4320,32 +4320,32 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2023.11.20 20:00</t>
+          <t>2023.11.22 02:15</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>1.81528</t>
+          <t>1.80173</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2023.11.22 09:00</t>
+          <t>2023.11.22 12:17</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>1.81007</t>
+          <t>1.80479</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>-3,14 USD</t>
+          <t>-1,85 USD</t>
         </is>
       </c>
     </row>
@@ -4357,37 +4357,37 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2023.11.20 15:35</t>
+          <t>2023.11.21 17:00</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>1.81922</t>
+          <t>1.91026</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2023.11.22 09:00</t>
+          <t>2023.11.22 12:10</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>1.81007</t>
+          <t>1.90882</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>-5,52 USD</t>
+          <t>0,95 USD</t>
         </is>
       </c>
     </row>
@@ -4404,32 +4404,32 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2023.11.22 07:00</t>
+          <t>2023.11.21 16:00</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1.915</t>
+          <t>1.90483</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2023.11.22 07:17</t>
+          <t>2023.11.22 12:10</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>1.916</t>
+          <t>1.90882</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>0,65 USD</t>
+          <t>-2,62 USD</t>
         </is>
       </c>
     </row>
@@ -4446,32 +4446,32 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2023.11.22 03:10</t>
+          <t>2023.11.22 07:00</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>1.91395</t>
+          <t>1.91467</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2023.11.22 06:56</t>
+          <t>2023.11.22 12:10</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>1.91495</t>
+          <t>1.90882</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>0,65 USD</t>
+          <t>3,85 USD</t>
         </is>
       </c>
     </row>
@@ -4493,34 +4493,34 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2023.11.21 21:00</t>
+          <t>2023.11.22 08:00</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>1.91252</t>
+          <t>1.91599</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2023.11.22 03:10</t>
+          <t>2023.11.22 09:17</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>1.91352</t>
+          <t>1.91699</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>0,66 USD</t>
+          <t>0,65 USD</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -4530,39 +4530,39 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2023.11.21 20:00</t>
+          <t>2023.11.21 10:00</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>1.80513</t>
+          <t>1.80202</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2023.11.22 02:15</t>
+          <t>2023.11.22 09:00</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>1.80219</t>
+          <t>1.81007</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>1,78 USD</t>
+          <t>9,71 USD</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -4572,32 +4572,32 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2023.11.21 16:00</t>
+          <t>2023.11.21 04:00</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>1.80145</t>
+          <t>1.8066</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2023.11.22 02:15</t>
+          <t>2023.11.22 09:00</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>1.80219</t>
+          <t>1.81007</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>-0,45 USD</t>
+          <t>4,19 USD</t>
         </is>
       </c>
     </row>
@@ -4609,7 +4609,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4619,67 +4619,403 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2023.11.21 19:00</t>
+          <t>2023.11.21 02:00</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>1.91251</t>
+          <t>1.81103</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2023.11.21 19:24</t>
+          <t>2023.11.22 09:00</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>1.91351</t>
+          <t>1.81007</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>0,65 USD</t>
+          <t>-0,58 USD</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>EURNZD</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023.11.20 20:00</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>1.81528</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2023.11.22 09:00</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>1.81007</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>-3,14 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>EURNZD</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023.11.20 15:35</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>1.81922</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2023.11.22 09:00</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>1.81007</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>-5,52 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>GBPAUD</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:00</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>1.915</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:17</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>1.916</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>0,65 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>GBPAUD</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023.11.22 03:10</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>1.91395</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2023.11.22 06:56</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>1.91495</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>0,65 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>GBPAUD</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023.11.21 21:00</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>1.91252</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2023.11.22 03:10</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>1.91352</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>0,66 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>EURNZD</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023.11.21 20:00</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>1.80513</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2023.11.22 02:15</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>1.80219</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>1,78 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>EURNZD</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023.11.21 16:00</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>1.80145</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2023.11.22 02:15</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>1.80219</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>-0,45 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>GBPAUD</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023.11.21 19:00</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>1.91251</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2023.11.21 19:24</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>1.91351</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>0,65 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
           <t>0,02</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B109" t="inlineStr">
         <is>
           <t>GBPAUD</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
         <is>
           <t>2023.11.20 09:00</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>1.90374</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>2023.11.21 18:48</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>1.91163</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
+      <c r="H109" t="inlineStr">
         <is>
           <t>10,35 USD</t>
         </is>

--- a/resources/БАЗА ДАННЫХ/litefinance/excel/PhanCongKhanh.xlsx
+++ b/resources/БАЗА ДАННЫХ/litefinance/excel/PhanCongKhanh.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:H173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -503,27 +503,27 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2023.11.27 14:00</t>
+          <t>2023.11.30 05:05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.79526</t>
+          <t>1.91266</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2023.11.27 20:25</t>
+          <t>2023.11.30 06:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.79426</t>
+          <t>1.91087</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0,61 USD</t>
+          <t>1,19 USD</t>
         </is>
       </c>
     </row>
@@ -545,27 +545,27 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2023.11.27 16:00</t>
+          <t>2023.11.29 13:00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.91418</t>
+          <t>1.91601</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2023.11.27 16:55</t>
+          <t>2023.11.30 05:05</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.9112</t>
+          <t>1.91304</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1,96 USD</t>
+          <t>1,97 USD</t>
         </is>
       </c>
     </row>
@@ -587,22 +587,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2023.11.27 09:49</t>
+          <t>2023.11.29 10:00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.91041</t>
+          <t>1.91226</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2023.11.27 16:55</t>
+          <t>2023.11.30 05:05</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.9112</t>
+          <t>1.91304</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -619,37 +619,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2023.11.27 09:37</t>
+          <t>2023.11.30 03:00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.66013</t>
+          <t>1.7785</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2023.11.27 14:32</t>
+          <t>2023.11.30 03:46</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.66113</t>
+          <t>1.7775</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1,00 USD</t>
+          <t>0,62 USD</t>
         </is>
       </c>
     </row>
@@ -671,27 +671,27 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2023.11.27 13:00</t>
+          <t>2023.11.30 02:00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.79672</t>
+          <t>1.77969</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2023.11.27 13:57</t>
+          <t>2023.11.30 02:20</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.79572</t>
+          <t>1.77869</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0,61 USD</t>
+          <t>0,62 USD</t>
         </is>
       </c>
     </row>
@@ -703,37 +703,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2023.11.27 07:00</t>
+          <t>2023.11.29 12:00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.72216</t>
+          <t>1.7853</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2023.11.27 13:38</t>
+          <t>2023.11.30 01:58</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.72316</t>
+          <t>1.7802</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0,73 USD</t>
+          <t>3,15 USD</t>
         </is>
       </c>
     </row>
@@ -745,37 +745,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2023.11.27 08:12</t>
+          <t>2023.11.29 09:00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.26264</t>
+          <t>1.78159</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2023.11.27 13:10</t>
+          <t>2023.11.30 01:58</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.26364</t>
+          <t>1.7802</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1,00 USD</t>
+          <t>0,86 USD</t>
         </is>
       </c>
     </row>
@@ -797,27 +797,27 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2023.11.27 12:00</t>
+          <t>2023.11.29 06:26</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.79712</t>
+          <t>1.77702</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2023.11.27 12:49</t>
+          <t>2023.11.30 01:58</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.79612</t>
+          <t>1.7802</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0,61 USD</t>
+          <t>-1,96 USD</t>
         </is>
       </c>
     </row>
@@ -829,37 +829,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2023.11.27 11:00</t>
+          <t>2023.11.29 11:00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.80116</t>
+          <t>1.26817</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2023.11.27 11:54</t>
+          <t>2023.11.29 19:50</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.7979</t>
+          <t>1.27153</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1,99 USD</t>
+          <t>3,36 USD</t>
         </is>
       </c>
     </row>
@@ -871,37 +871,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2023.11.27 10:00</t>
+          <t>2023.11.29 02:01</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.79684</t>
+          <t>1.27269</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2023.11.27 11:54</t>
+          <t>2023.11.29 19:50</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.7979</t>
+          <t>1.27153</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>-0,64 USD</t>
+          <t>-1,16 USD</t>
         </is>
       </c>
     </row>
@@ -913,37 +913,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2023.11.27 09:09</t>
+          <t>2023.11.29 15:00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.79891</t>
+          <t>1.91782</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2023.11.27 10:00</t>
+          <t>2023.11.29 19:26</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.79724</t>
+          <t>1.91882</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1,02 USD</t>
+          <t>0,67 USD</t>
         </is>
       </c>
     </row>
@@ -955,37 +955,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2023.11.27 05:00</t>
+          <t>2023.11.28 18:26</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.91768</t>
+          <t>1.72495</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2023.11.27 09:49</t>
+          <t>2023.11.29 18:06</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.91076</t>
+          <t>1.72595</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>4,56 USD</t>
+          <t>0,74 USD</t>
         </is>
       </c>
     </row>
@@ -1002,32 +1002,32 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2023.11.23 11:00</t>
+          <t>2023.11.29 12:45</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.91349</t>
+          <t>1.91664</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2023.11.27 09:49</t>
+          <t>2023.11.29 14:25</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.91076</t>
+          <t>1.91764</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1,80 USD</t>
+          <t>0,66 USD</t>
         </is>
       </c>
     </row>
@@ -1044,32 +1044,32 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2023.11.23 08:28</t>
+          <t>2023.11.29 07:12</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.90442</t>
+          <t>1.91522</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2023.11.27 09:49</t>
+          <t>2023.11.29 12:45</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.91076</t>
+          <t>1.91622</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>-4,19 USD</t>
+          <t>0,66 USD</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1091,27 +1091,27 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2023.11.27 03:00</t>
+          <t>2023.11.29 06:26</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.65888</t>
+          <t>1.91377</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2023.11.27 09:37</t>
+          <t>2023.11.29 07:12</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.65988</t>
+          <t>1.91477</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>1,00 USD</t>
+          <t>0,66 USD</t>
         </is>
       </c>
     </row>
@@ -1123,37 +1123,37 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2023.11.27 04:00</t>
+          <t>2023.11.29 04:07</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.80356</t>
+          <t>1.91211</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2023.11.27 09:09</t>
+          <t>2023.11.29 06:26</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1.79932</t>
+          <t>1.91311</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2,58 USD</t>
+          <t>0,66 USD</t>
         </is>
       </c>
     </row>
@@ -1175,27 +1175,27 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2023.11.24 16:41</t>
+          <t>2023.11.29 06:00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.79728</t>
+          <t>1.77505</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2023.11.27 09:09</t>
+          <t>2023.11.29 06:07</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1.79932</t>
+          <t>1.77405</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>-1,24 USD</t>
+          <t>0,62 USD</t>
         </is>
       </c>
     </row>
@@ -1207,37 +1207,37 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2023.11.24 17:00</t>
+          <t>2023.11.29 03:00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.26139</t>
+          <t>1.77733</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2023.11.27 08:12</t>
+          <t>2023.11.29 05:23</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1.26239</t>
+          <t>1.77633</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1,00 USD</t>
+          <t>0,62 USD</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1259,27 +1259,27 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2023.11.24 19:49</t>
+          <t>2023.11.29 02:00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.72074</t>
+          <t>1.9107</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2023.11.27 07:00</t>
+          <t>2023.11.29 04:07</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1.72174</t>
+          <t>1.9117</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0,73 USD</t>
+          <t>0,66 USD</t>
         </is>
       </c>
     </row>
@@ -1291,37 +1291,37 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2023.11.27 04:23</t>
+          <t>2023.11.29 02:00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.91647</t>
+          <t>1.7878</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2023.11.27 05:00</t>
+          <t>2023.11.29 03:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1.91771</t>
+          <t>1.77771</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0,81 USD</t>
+          <t>6,25 USD</t>
         </is>
       </c>
     </row>
@@ -1333,37 +1333,37 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2023.11.27 03:32</t>
+          <t>2023.11.29 01:52</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.80343</t>
+          <t>1.35538</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2023.11.27 04:26</t>
+          <t>2023.11.29 02:42</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1.80443</t>
+          <t>1.35438</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0,61 USD</t>
+          <t>0,74 USD</t>
         </is>
       </c>
     </row>
@@ -1380,32 +1380,32 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2023.11.24 14:15</t>
+          <t>2023.11.28 20:00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.91498</t>
+          <t>1.91043</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2023.11.27 04:23</t>
+          <t>2023.11.29 02:15</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1.91598</t>
+          <t>1.90736</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0,66 USD</t>
+          <t>2,05 USD</t>
         </is>
       </c>
     </row>
@@ -1417,37 +1417,37 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2023.11.24 02:00</t>
+          <t>2023.11.28 17:32</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.80164</t>
+          <t>1.90649</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2023.11.27 03:32</t>
+          <t>2023.11.29 02:15</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1.80301</t>
+          <t>1.90736</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0,83 USD</t>
+          <t>-0,58 USD</t>
         </is>
       </c>
     </row>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1469,27 +1469,27 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2023.11.23 10:59</t>
+          <t>2023.11.28 18:00</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.80606</t>
+          <t>1.27143</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2023.11.27 03:32</t>
+          <t>2023.11.29 02:01</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1.80301</t>
+          <t>1.27243</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>-1,85 USD</t>
+          <t>1,00 USD</t>
         </is>
       </c>
     </row>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>AUDUSD</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1511,27 +1511,27 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2023.11.24 17:00</t>
+          <t>2023.11.28 17:21</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.79802</t>
+          <t>0.66569</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2023.11.27 03:32</t>
+          <t>2023.11.29 02:01</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1.80301</t>
+          <t>0.66669</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>3,02 USD</t>
+          <t>1,00 USD</t>
         </is>
       </c>
     </row>
@@ -1543,37 +1543,37 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2023.11.24 15:54</t>
+          <t>2023.11.28 17:00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.65816</t>
+          <t>1.79019</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2023.11.27 02:28</t>
+          <t>2023.11.29 02:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.65916</t>
+          <t>1.78919</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>1,00 USD</t>
+          <t>0,61 USD</t>
         </is>
       </c>
     </row>
@@ -1585,37 +1585,37 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2023.11.24 12:00</t>
+          <t>2023.11.28 17:18</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.71988</t>
+          <t>1.3567</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2023.11.24 19:49</t>
+          <t>2023.11.29 01:52</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1.71826</t>
+          <t>1.3557</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>-1,19 USD</t>
+          <t>0,74 USD</t>
         </is>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1637,27 +1637,27 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2023.11.24 16:00</t>
+          <t>2023.11.27 05:00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.71443</t>
+          <t>1.91807</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2023.11.24 19:49</t>
+          <t>2023.11.29 01:31</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1.71826</t>
+          <t>1.91324</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2,81 USD</t>
+          <t>-3,21 USD</t>
         </is>
       </c>
     </row>
@@ -1669,7 +1669,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1679,27 +1679,27 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2023.11.24 16:00</t>
+          <t>2023.11.28 06:00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.26001</t>
+          <t>1.9074</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2023.11.24 17:00</t>
+          <t>2023.11.29 01:31</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1.26117</t>
+          <t>1.91324</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>1,16 USD</t>
+          <t>3,88 USD</t>
         </is>
       </c>
     </row>
@@ -1711,37 +1711,37 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2023.11.24 14:00</t>
+          <t>2023.11.27 10:00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.7987</t>
+          <t>1.91095</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2023.11.24 16:41</t>
+          <t>2023.11.29 01:31</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1.7977</t>
+          <t>1.91324</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0,61 USD</t>
+          <t>1,52 USD</t>
         </is>
       </c>
     </row>
@@ -1753,37 +1753,37 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2023.11.24 15:11</t>
+          <t>2023.11.28 17:06</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.36524</t>
+          <t>1.72363</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2023.11.24 16:00</t>
+          <t>2023.11.28 18:26</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>1.36084</t>
+          <t>1.72463</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>3,23 USD</t>
+          <t>0,74 USD</t>
         </is>
       </c>
     </row>
@@ -1805,27 +1805,27 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2023.11.24 15:11</t>
+          <t>2023.11.28 17:00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.25853</t>
+          <t>1.26836</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2023.11.24 16:00</t>
+          <t>2023.11.28 18:00</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>1.25972</t>
+          <t>1.27104</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>1,19 USD</t>
+          <t>2,68 USD</t>
         </is>
       </c>
     </row>
@@ -1837,37 +1837,37 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2023.11.21 04:21</t>
+          <t>2023.11.28 13:00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.65831</t>
+          <t>1.90788</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2023.11.24 15:54</t>
+          <t>2023.11.28 17:32</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.65788</t>
+          <t>1.90688</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>-0,43 USD</t>
+          <t>0,67 USD</t>
         </is>
       </c>
     </row>
@@ -1889,27 +1889,27 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2023.11.21 20:00</t>
+          <t>2023.11.28 16:39</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.65525</t>
+          <t>0.66443</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2023.11.24 15:54</t>
+          <t>2023.11.28 17:21</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.65788</t>
+          <t>0.66543</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2,63 USD</t>
+          <t>1,00 USD</t>
         </is>
       </c>
     </row>
@@ -1921,37 +1921,37 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2023.11.24 13:09</t>
+          <t>2023.11.28 11:11</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1.25725</t>
+          <t>1.35801</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2023.11.24 15:11</t>
+          <t>2023.11.28 17:18</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>1.25825</t>
+          <t>1.35701</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>1,00 USD</t>
+          <t>0,74 USD</t>
         </is>
       </c>
     </row>
@@ -1963,37 +1963,37 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2023.11.23 11:00</t>
+          <t>2023.11.28 16:23</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.36827</t>
+          <t>1.72232</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2023.11.24 15:11</t>
+          <t>2023.11.28 17:06</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1.36556</t>
+          <t>1.72332</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>1,98 USD</t>
+          <t>0,74 USD</t>
         </is>
       </c>
     </row>
@@ -2005,7 +2005,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2015,27 +2015,27 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2023.11.23 08:34</t>
+          <t>2023.11.28 16:34</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1.36505</t>
+          <t>1.79424</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2023.11.24 15:11</t>
+          <t>2023.11.28 17:00</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>1.36556</t>
+          <t>1.79057</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>-0,37 USD</t>
+          <t>2,25 USD</t>
         </is>
       </c>
     </row>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2057,27 +2057,27 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2023.11.24 13:47</t>
+          <t>2023.11.28 16:04</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1.91357</t>
+          <t>1.26674</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2023.11.24 14:15</t>
+          <t>2023.11.28 17:00</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>1.91457</t>
+          <t>1.26812</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>0,66 USD</t>
+          <t>1,38 USD</t>
         </is>
       </c>
     </row>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>AUDUSD</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2099,27 +2099,27 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2023.11.23 18:00</t>
+          <t>2023.11.28 03:36</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.91013</t>
+          <t>0.66311</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2023.11.24 13:46</t>
+          <t>2023.11.28 16:39</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>1.91316</t>
+          <t>0.66411</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>1,99 USD</t>
+          <t>1,00 USD</t>
         </is>
       </c>
     </row>
@@ -2131,37 +2131,37 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2023.11.23 11:00</t>
+          <t>2023.11.28 10:00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1.91398</t>
+          <t>1.79857</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2023.11.24 13:46</t>
+          <t>2023.11.28 16:34</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>1.91316</t>
+          <t>1.79462</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>-0,54 USD</t>
+          <t>2,42 USD</t>
         </is>
       </c>
     </row>
@@ -2173,37 +2173,37 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2023.11.23 11:00</t>
+          <t>2023.11.28 03:36</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1.25597</t>
+          <t>1.79286</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2023.11.24 13:09</t>
+          <t>2023.11.28 16:34</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>1.25697</t>
+          <t>1.79462</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>1,00 USD</t>
+          <t>-1,08 USD</t>
         </is>
       </c>
     </row>
@@ -2215,37 +2215,37 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2023.11.24 11:18</t>
+          <t>2023.11.28 15:32</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.79983</t>
+          <t>1.72092</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2023.11.24 13:06</t>
+          <t>2023.11.28 16:23</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>1.79883</t>
+          <t>1.72192</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>0,60 USD</t>
+          <t>0,73 USD</t>
         </is>
       </c>
     </row>
@@ -2257,7 +2257,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2267,27 +2267,27 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2023.11.23 11:00</t>
+          <t>2023.11.28 15:24</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.71878</t>
+          <t>1.26542</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2023.11.24 11:50</t>
+          <t>2023.11.28 16:04</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>1.71978</t>
+          <t>1.26642</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>0,73 USD</t>
+          <t>1,00 USD</t>
         </is>
       </c>
     </row>
@@ -2299,37 +2299,37 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2023.11.24 02:00</t>
+          <t>2023.11.28 09:00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.80124</t>
+          <t>1.71544</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2023.11.24 11:18</t>
+          <t>2023.11.28 15:32</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>1.80024</t>
+          <t>1.72052</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>0,60 USD</t>
+          <t>3,73 USD</t>
         </is>
       </c>
     </row>
@@ -2341,37 +2341,37 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2023.11.23 11:00</t>
+          <t>2023.11.27 17:00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.80582</t>
+          <t>1.71924</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2023.11.24 01:52</t>
+          <t>2023.11.28 15:32</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>1.80174</t>
+          <t>1.72052</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2,47 USD</t>
+          <t>0,94 USD</t>
         </is>
       </c>
     </row>
@@ -2383,37 +2383,37 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2023.11.23 08:00</t>
+          <t>2023.11.27 13:38</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.79986</t>
+          <t>1.72358</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2023.11.24 01:52</t>
+          <t>2023.11.28 15:32</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1.80174</t>
+          <t>1.72052</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>-1,14 USD</t>
+          <t>-2,26 USD</t>
         </is>
       </c>
     </row>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2435,27 +2435,27 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2023.11.23 10:30</t>
+          <t>2023.11.27 13:10</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.71586</t>
+          <t>1.26393</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2023.11.23 11:00</t>
+          <t>2023.11.28 15:24</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1.71839</t>
+          <t>1.26493</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>1,85 USD</t>
+          <t>1,00 USD</t>
         </is>
       </c>
     </row>
@@ -2467,37 +2467,37 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2023.11.23 10:30</t>
+          <t>2023.11.28 08:46</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.9123</t>
+          <t>1.71501</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2023.11.23 11:00</t>
+          <t>2023.11.28 13:08</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1.91349</t>
+          <t>1.71401</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>0,78 USD</t>
+          <t>0,74 USD</t>
         </is>
       </c>
     </row>
@@ -2509,37 +2509,37 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2023.11.22 15:17</t>
+          <t>2023.11.28 10:00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1.80974</t>
+          <t>1.91164</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2023.11.23 10:59</t>
+          <t>2023.11.28 12:35</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>1.80569</t>
+          <t>1.90783</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>-2,45 USD</t>
+          <t>2,52 USD</t>
         </is>
       </c>
     </row>
@@ -2551,37 +2551,37 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2023.11.23 08:00</t>
+          <t>2023.11.28 03:36</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1.8002</t>
+          <t>1.90621</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2023.11.23 10:59</t>
+          <t>2023.11.28 12:35</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>1.80569</t>
+          <t>1.90783</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>3,32 USD</t>
+          <t>-1,07 USD</t>
         </is>
       </c>
     </row>
@@ -2593,37 +2593,37 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2023.11.23 03:00</t>
+          <t>2023.11.28 08:00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.80383</t>
+          <t>1.35942</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2023.11.23 10:59</t>
+          <t>2023.11.28 11:11</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>1.80569</t>
+          <t>1.35842</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>1,13 USD</t>
+          <t>0,74 USD</t>
         </is>
       </c>
     </row>
@@ -2640,32 +2640,32 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2023.11.22 13:17</t>
+          <t>2023.11.23 11:00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.7202</t>
+          <t>1.71833</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2023.11.23 10:30</t>
+          <t>2023.11.28 08:46</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>1.71727</t>
+          <t>1.71539</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>-2,14 USD</t>
+          <t>2,16 USD</t>
         </is>
       </c>
     </row>
@@ -2682,32 +2682,32 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2023.11.22 18:00</t>
+          <t>2023.11.23 07:37</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.71228</t>
+          <t>1.70902</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2023.11.23 10:30</t>
+          <t>2023.11.28 08:46</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1.71727</t>
+          <t>1.71539</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>3,65 USD</t>
+          <t>-4,68 USD</t>
         </is>
       </c>
     </row>
@@ -2724,32 +2724,32 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2023.11.22 16:00</t>
+          <t>2023.11.27 13:00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1.71604</t>
+          <t>1.72211</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2023.11.23 10:30</t>
+          <t>2023.11.28 08:46</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1.71727</t>
+          <t>1.71539</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>0,90 USD</t>
+          <t>4,94 USD</t>
         </is>
       </c>
     </row>
@@ -2761,37 +2761,37 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2023.11.23 09:29</t>
+          <t>2023.11.28 00:53</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1.25263</t>
+          <t>1.3607</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2023.11.23 10:30</t>
+          <t>2023.11.28 07:31</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>1.25363</t>
+          <t>1.3597</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>1,00 USD</t>
+          <t>0,74 USD</t>
         </is>
       </c>
     </row>
@@ -2803,37 +2803,37 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2023.11.22 14:00</t>
+          <t>2023.11.28 02:05</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1.91042</t>
+          <t>1.79423</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2023.11.23 10:30</t>
+          <t>2023.11.28 03:36</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>1.90949</t>
+          <t>1.79323</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>-0,61 USD</t>
+          <t>0,61 USD</t>
         </is>
       </c>
     </row>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>AUDUSD</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2855,27 +2855,27 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2023.11.23 07:00</t>
+          <t>2023.11.28 03:00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1.90635</t>
+          <t>0.66201</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2023.11.23 10:30</t>
+          <t>2023.11.28 03:35</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>1.90949</t>
+          <t>0.66301</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2,06 USD</t>
+          <t>1,00 USD</t>
         </is>
       </c>
     </row>
@@ -2887,37 +2887,37 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2023.11.22 13:12</t>
+          <t>2023.11.28 03:00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1.25448</t>
+          <t>1.90874</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2023.11.23 09:29</t>
+          <t>2023.11.28 03:23</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>1.25242</t>
+          <t>1.90774</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>-2,06 USD</t>
+          <t>0,66 USD</t>
         </is>
       </c>
     </row>
@@ -2929,7 +2929,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>AUDUSD</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2939,27 +2939,27 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2023.11.22 16:00</t>
+          <t>2023.11.27 14:32</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1.24816</t>
+          <t>0.66141</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2023.11.23 09:29</t>
+          <t>2023.11.28 02:12</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>1.25242</t>
+          <t>0.66241</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>4,26 USD</t>
+          <t>1,00 USD</t>
         </is>
       </c>
     </row>
@@ -2971,7 +2971,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2981,27 +2981,27 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2023.11.23 07:00</t>
+          <t>2023.11.27 17:00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1.36632</t>
+          <t>1.91003</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2023.11.23 08:34</t>
+          <t>2023.11.28 02:07</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>1.36532</t>
+          <t>1.90903</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>0,73 USD</t>
+          <t>0,66 USD</t>
         </is>
       </c>
     </row>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3023,27 +3023,27 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2023.11.23 03:16</t>
+          <t>2023.11.28 00:00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>1.9058</t>
+          <t>1.79751</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2023.11.23 08:28</t>
+          <t>2023.11.28 02:05</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>1.9048</t>
+          <t>1.7946</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>0,65 USD</t>
+          <t>1,78 USD</t>
         </is>
       </c>
     </row>
@@ -3065,27 +3065,27 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2023.11.23 07:00</t>
+          <t>2023.11.27 20:25</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>1.80055</t>
+          <t>1.79388</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2023.11.23 07:41</t>
+          <t>2023.11.28 02:05</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>1.79955</t>
+          <t>1.7946</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>0,61 USD</t>
+          <t>-0,44 USD</t>
         </is>
       </c>
     </row>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3107,27 +3107,27 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2023.11.22 19:00</t>
+          <t>2023.11.27 02:00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1.71038</t>
+          <t>1.36367</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2023.11.23 07:37</t>
+          <t>2023.11.28 00:53</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>1.70938</t>
+          <t>1.36104</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>0,73 USD</t>
+          <t>1,93 USD</t>
         </is>
       </c>
     </row>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3149,27 +3149,27 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2023.11.23 04:00</t>
+          <t>2023.11.24 16:00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1.80199</t>
+          <t>1.3606</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2023.11.23 06:47</t>
+          <t>2023.11.28 00:53</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>1.80099</t>
+          <t>1.36104</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>0,60 USD</t>
+          <t>-0,32 USD</t>
         </is>
       </c>
     </row>
@@ -3181,7 +3181,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3191,27 +3191,27 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2023.11.22 21:58</t>
+          <t>2023.11.27 14:00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1.36916</t>
+          <t>1.79526</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2023.11.23 06:21</t>
+          <t>2023.11.27 20:25</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>1.36816</t>
+          <t>1.79426</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>0,73 USD</t>
+          <t>0,61 USD</t>
         </is>
       </c>
     </row>
@@ -3223,7 +3223,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3233,27 +3233,27 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2023.11.23 03:00</t>
+          <t>2023.11.27 16:00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1.80342</t>
+          <t>1.91418</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2023.11.23 04:00</t>
+          <t>2023.11.27 16:55</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>1.80237</t>
+          <t>1.9112</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>0,64 USD</t>
+          <t>1,96 USD</t>
         </is>
       </c>
     </row>
@@ -3275,27 +3275,27 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2023.11.22 16:45</t>
+          <t>2023.11.27 09:49</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1.90722</t>
+          <t>1.91041</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2023.11.23 03:16</t>
+          <t>2023.11.27 16:55</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>1.90622</t>
+          <t>1.9112</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>0,65 USD</t>
+          <t>-0,52 USD</t>
         </is>
       </c>
     </row>
@@ -3307,37 +3307,37 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>AUDUSD</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2023.11.23 02:27</t>
+          <t>2023.11.27 09:37</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1.8048</t>
+          <t>0.66013</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2023.11.23 03:00</t>
+          <t>2023.11.27 14:32</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>1.80383</t>
+          <t>0.66113</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>0,59 USD</t>
+          <t>1,00 USD</t>
         </is>
       </c>
     </row>
@@ -3359,27 +3359,27 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2023.11.22 15:00</t>
+          <t>2023.11.27 13:00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1.80823</t>
+          <t>1.79672</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2023.11.23 02:27</t>
+          <t>2023.11.27 13:57</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>1.80519</t>
+          <t>1.79572</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>1,83 USD</t>
+          <t>0,61 USD</t>
         </is>
       </c>
     </row>
@@ -3391,37 +3391,37 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2023.11.22 12:17</t>
+          <t>2023.11.27 07:00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1.80434</t>
+          <t>1.72216</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2023.11.23 02:27</t>
+          <t>2023.11.27 13:38</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>1.80519</t>
+          <t>1.72316</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>-0,52 USD</t>
+          <t>0,73 USD</t>
         </is>
       </c>
     </row>
@@ -3433,37 +3433,37 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2023.11.21 15:54</t>
+          <t>2023.11.27 08:12</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1.36906</t>
+          <t>1.26264</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2023.11.22 21:58</t>
+          <t>2023.11.27 13:10</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>1.3695</t>
+          <t>1.26364</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>-0,32 USD</t>
+          <t>1,00 USD</t>
         </is>
       </c>
     </row>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3485,27 +3485,27 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2023.11.22 08:00</t>
+          <t>2023.11.27 12:00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>1.37213</t>
+          <t>1.79712</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2023.11.22 21:58</t>
+          <t>2023.11.27 12:49</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>1.3695</t>
+          <t>1.79612</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>1,92 USD</t>
+          <t>0,61 USD</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3527,27 +3527,27 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2023.11.22 16:49</t>
+          <t>2023.11.27 11:00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1.71174</t>
+          <t>1.80116</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2023.11.22 19:00</t>
+          <t>2023.11.27 11:54</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>1.71074</t>
+          <t>1.7979</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>0,73 USD</t>
+          <t>1,99 USD</t>
         </is>
       </c>
     </row>
@@ -3559,7 +3559,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3569,39 +3569,39 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2023.11.17 17:00</t>
+          <t>2023.11.27 10:00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>1.70683</t>
+          <t>1.79684</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2023.11.22 16:49</t>
+          <t>2023.11.27 11:54</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>1.7121</t>
+          <t>1.7979</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>-3,83 USD</t>
+          <t>-0,64 USD</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3611,39 +3611,39 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2023.11.20 16:00</t>
+          <t>2023.11.27 09:09</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1.71619</t>
+          <t>1.79891</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2023.11.22 16:49</t>
+          <t>2023.11.27 10:00</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>1.7121</t>
+          <t>1.79724</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>5,95 USD</t>
+          <t>1,02 USD</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3653,27 +3653,27 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2023.11.21 11:00</t>
+          <t>2023.11.27 05:00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1.72016</t>
+          <t>1.91768</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2023.11.22 16:49</t>
+          <t>2023.11.27 09:49</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>1.7121</t>
+          <t>1.91076</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>11,73 USD</t>
+          <t>4,56 USD</t>
         </is>
       </c>
     </row>
@@ -3685,7 +3685,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3695,27 +3695,27 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2023.11.17 09:53</t>
+          <t>2023.11.23 11:00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1.70245</t>
+          <t>1.91349</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2023.11.22 16:49</t>
+          <t>2023.11.27 09:49</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>1.7121</t>
+          <t>1.91076</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>-7,02 USD</t>
+          <t>1,80 USD</t>
         </is>
       </c>
     </row>
@@ -3727,7 +3727,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3737,27 +3737,27 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2023.11.20 07:00</t>
+          <t>2023.11.23 08:28</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1.71041</t>
+          <t>1.90442</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2023.11.22 16:49</t>
+          <t>2023.11.27 09:49</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>1.7121</t>
+          <t>1.91076</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>-1,22 USD</t>
+          <t>-4,19 USD</t>
         </is>
       </c>
     </row>
@@ -3769,37 +3769,37 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>AUDUSD</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2023.11.22 12:10</t>
+          <t>2023.11.27 03:00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>1.90853</t>
+          <t>0.65888</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2023.11.22 16:45</t>
+          <t>2023.11.27 09:37</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>1.90753</t>
+          <t>0.65988</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>0,66 USD</t>
+          <t>1,00 USD</t>
         </is>
       </c>
     </row>
@@ -3811,37 +3811,37 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2023.11.17 20:00</t>
+          <t>2023.11.27 04:00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>1.37156</t>
+          <t>1.80356</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2023.11.22 16:02</t>
+          <t>2023.11.27 09:09</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>1.37575</t>
+          <t>1.79932</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>3,05 USD</t>
+          <t>2,58 USD</t>
         </is>
       </c>
     </row>
@@ -3853,37 +3853,37 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2023.11.16 18:00</t>
+          <t>2023.11.24 16:41</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>1.37774</t>
+          <t>1.79728</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2023.11.22 16:02</t>
+          <t>2023.11.27 09:09</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>1.37575</t>
+          <t>1.79932</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>-1,45 USD</t>
+          <t>-1,24 USD</t>
         </is>
       </c>
     </row>
@@ -3895,7 +3895,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3905,27 +3905,27 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2023.11.17 10:00</t>
+          <t>2023.11.24 17:00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>1.37466</t>
+          <t>1.26139</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2023.11.22 16:02</t>
+          <t>2023.11.27 08:12</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>1.37575</t>
+          <t>1.26239</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>0,79 USD</t>
+          <t>1,00 USD</t>
         </is>
       </c>
     </row>
@@ -3937,7 +3937,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3947,27 +3947,27 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2023.11.22 12:00</t>
+          <t>2023.11.24 19:49</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>1.80641</t>
+          <t>1.72074</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2023.11.22 15:17</t>
+          <t>2023.11.27 07:00</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>1.80942</t>
+          <t>1.72174</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>1,81 USD</t>
+          <t>0,73 USD</t>
         </is>
       </c>
     </row>
@@ -3979,7 +3979,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3989,27 +3989,27 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2023.11.22 09:00</t>
+          <t>2023.11.27 04:23</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>1.81023</t>
+          <t>1.91647</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2023.11.22 15:17</t>
+          <t>2023.11.27 05:00</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>1.80942</t>
+          <t>1.91771</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>-0,49 USD</t>
+          <t>0,81 USD</t>
         </is>
       </c>
     </row>
@@ -4021,7 +4021,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4031,27 +4031,27 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2023.11.22 13:00</t>
+          <t>2023.11.27 03:32</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>1.90996</t>
+          <t>1.80343</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2023.11.22 13:48</t>
+          <t>2023.11.27 04:26</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>1.91096</t>
+          <t>1.80443</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>0,66 USD</t>
+          <t>0,61 USD</t>
         </is>
       </c>
     </row>
@@ -4063,7 +4063,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4073,27 +4073,27 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2023.11.21 14:01</t>
+          <t>2023.11.24 14:15</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>1.72112</t>
+          <t>1.91498</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2023.11.22 13:17</t>
+          <t>2023.11.27 04:23</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>1.71988</t>
+          <t>1.91598</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>-0,90 USD</t>
+          <t>0,66 USD</t>
         </is>
       </c>
     </row>
@@ -4105,7 +4105,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4115,27 +4115,27 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2023.11.21 17:00</t>
+          <t>2023.11.24 02:00</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1.71644</t>
+          <t>1.80164</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2023.11.22 13:17</t>
+          <t>2023.11.27 03:32</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>1.71988</t>
+          <t>1.80301</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2,51 USD</t>
+          <t>0,83 USD</t>
         </is>
       </c>
     </row>
@@ -4147,7 +4147,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4157,27 +4157,27 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2023.11.21 11:40</t>
+          <t>2023.11.23 10:59</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>1.25499</t>
+          <t>1.80606</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2023.11.22 13:12</t>
+          <t>2023.11.27 03:32</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>1.25432</t>
+          <t>1.80301</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>-0,67 USD</t>
+          <t>-1,85 USD</t>
         </is>
       </c>
     </row>
@@ -4189,7 +4189,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4199,27 +4199,27 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2023.11.22 10:00</t>
+          <t>2023.11.24 17:00</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>1.25145</t>
+          <t>1.79802</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2023.11.22 13:12</t>
+          <t>2023.11.27 03:32</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>1.25432</t>
+          <t>1.80301</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2,87 USD</t>
+          <t>3,02 USD</t>
         </is>
       </c>
     </row>
@@ -4231,37 +4231,37 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>AUDUSD</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2023.11.22 09:00</t>
+          <t>2023.11.24 15:54</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>1.81002</t>
+          <t>0.65816</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2023.11.22 12:17</t>
+          <t>2023.11.27 02:28</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>1.80479</t>
+          <t>0.65916</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>3,16 USD</t>
+          <t>1,00 USD</t>
         </is>
       </c>
     </row>
@@ -4273,37 +4273,37 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2023.11.22 06:00</t>
+          <t>2023.11.24 12:00</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>1.80591</t>
+          <t>1.71988</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2023.11.22 12:17</t>
+          <t>2023.11.24 19:49</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>1.80479</t>
+          <t>1.71826</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>0,67 USD</t>
+          <t>-1,19 USD</t>
         </is>
       </c>
     </row>
@@ -4315,37 +4315,37 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2023.11.22 02:15</t>
+          <t>2023.11.24 16:00</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>1.80173</t>
+          <t>1.71443</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2023.11.22 12:17</t>
+          <t>2023.11.24 19:49</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>1.80479</t>
+          <t>1.71826</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>-1,85 USD</t>
+          <t>2,81 USD</t>
         </is>
       </c>
     </row>
@@ -4357,37 +4357,37 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2023.11.21 17:00</t>
+          <t>2023.11.24 16:00</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>1.91026</t>
+          <t>1.26001</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2023.11.22 12:10</t>
+          <t>2023.11.24 17:00</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>1.90882</t>
+          <t>1.26117</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>0,95 USD</t>
+          <t>1,16 USD</t>
         </is>
       </c>
     </row>
@@ -4399,7 +4399,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4409,27 +4409,27 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2023.11.21 16:00</t>
+          <t>2023.11.24 14:00</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1.90483</t>
+          <t>1.7987</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2023.11.22 12:10</t>
+          <t>2023.11.24 16:41</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>1.90882</t>
+          <t>1.7977</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>-2,62 USD</t>
+          <t>0,61 USD</t>
         </is>
       </c>
     </row>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4451,27 +4451,27 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2023.11.22 07:00</t>
+          <t>2023.11.24 15:11</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>1.91467</t>
+          <t>1.36524</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2023.11.22 12:10</t>
+          <t>2023.11.24 16:00</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>1.90882</t>
+          <t>1.36084</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>3,85 USD</t>
+          <t>3,23 USD</t>
         </is>
       </c>
     </row>
@@ -4483,7 +4483,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4493,39 +4493,39 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2023.11.22 08:00</t>
+          <t>2023.11.24 15:11</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>1.91599</t>
+          <t>1.25853</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2023.11.22 09:17</t>
+          <t>2023.11.24 16:00</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>1.91699</t>
+          <t>1.25972</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>0,65 USD</t>
+          <t>1,19 USD</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>AUDUSD</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4535,39 +4535,39 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2023.11.21 10:00</t>
+          <t>2023.11.21 04:21</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>1.80202</t>
+          <t>0.65831</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2023.11.22 09:00</t>
+          <t>2023.11.24 15:54</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>1.81007</t>
+          <t>0.65788</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>9,71 USD</t>
+          <t>-0,43 USD</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>AUDUSD</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4577,27 +4577,27 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2023.11.21 04:00</t>
+          <t>2023.11.21 20:00</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>1.8066</t>
+          <t>0.65525</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2023.11.22 09:00</t>
+          <t>2023.11.24 15:54</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>1.81007</t>
+          <t>0.65788</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>4,19 USD</t>
+          <t>2,63 USD</t>
         </is>
       </c>
     </row>
@@ -4609,7 +4609,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4619,27 +4619,27 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2023.11.21 02:00</t>
+          <t>2023.11.24 13:09</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>1.81103</t>
+          <t>1.25725</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2023.11.22 09:00</t>
+          <t>2023.11.24 15:11</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>1.81007</t>
+          <t>1.25825</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>-0,58 USD</t>
+          <t>1,00 USD</t>
         </is>
       </c>
     </row>
@@ -4651,37 +4651,37 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2023.11.20 20:00</t>
+          <t>2023.11.23 11:00</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>1.81528</t>
+          <t>1.36827</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2023.11.22 09:00</t>
+          <t>2023.11.24 15:11</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>1.81007</t>
+          <t>1.36556</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>-3,14 USD</t>
+          <t>1,98 USD</t>
         </is>
       </c>
     </row>
@@ -4693,37 +4693,37 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2023.11.20 15:35</t>
+          <t>2023.11.23 08:34</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>1.81922</t>
+          <t>1.36505</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2023.11.22 09:00</t>
+          <t>2023.11.24 15:11</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>1.81007</t>
+          <t>1.36556</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>-5,52 USD</t>
+          <t>-0,37 USD</t>
         </is>
       </c>
     </row>
@@ -4745,27 +4745,27 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2023.11.22 07:00</t>
+          <t>2023.11.24 13:47</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>1.915</t>
+          <t>1.91357</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2023.11.22 07:17</t>
+          <t>2023.11.24 14:15</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>1.916</t>
+          <t>1.91457</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>0,65 USD</t>
+          <t>0,66 USD</t>
         </is>
       </c>
     </row>
@@ -4787,27 +4787,27 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2023.11.22 03:10</t>
+          <t>2023.11.23 18:00</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>1.91395</t>
+          <t>1.91013</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2023.11.22 06:56</t>
+          <t>2023.11.24 13:46</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>1.91495</t>
+          <t>1.91316</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>0,65 USD</t>
+          <t>1,99 USD</t>
         </is>
       </c>
     </row>
@@ -4829,27 +4829,27 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2023.11.21 21:00</t>
+          <t>2023.11.23 11:00</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>1.91252</t>
+          <t>1.91398</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2023.11.22 03:10</t>
+          <t>2023.11.24 13:46</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>1.91352</t>
+          <t>1.91316</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>0,66 USD</t>
+          <t>-0,54 USD</t>
         </is>
       </c>
     </row>
@@ -4861,37 +4861,37 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2023.11.21 20:00</t>
+          <t>2023.11.23 11:00</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>1.80513</t>
+          <t>1.25597</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2023.11.22 02:15</t>
+          <t>2023.11.24 13:09</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>1.80219</t>
+          <t>1.25697</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>1,78 USD</t>
+          <t>1,00 USD</t>
         </is>
       </c>
     </row>
@@ -4913,27 +4913,27 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2023.11.21 16:00</t>
+          <t>2023.11.24 11:18</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>1.80145</t>
+          <t>1.79983</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2023.11.22 02:15</t>
+          <t>2023.11.24 13:06</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>1.80219</t>
+          <t>1.79883</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>-0,45 USD</t>
+          <t>0,60 USD</t>
         </is>
       </c>
     </row>
@@ -4945,7 +4945,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4955,67 +4955,2755 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2023.11.21 19:00</t>
+          <t>2023.11.23 11:00</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>1.91251</t>
+          <t>1.71878</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2023.11.21 19:24</t>
+          <t>2023.11.24 11:50</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>1.91351</t>
+          <t>1.71978</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>0,65 USD</t>
+          <t>0,73 USD</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>EURNZD</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023.11.24 02:00</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>1.80124</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2023.11.24 11:18</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>1.80024</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>0,60 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>EURNZD</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023.11.23 11:00</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>1.80582</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2023.11.24 01:52</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>1.80174</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>2,47 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>EURNZD</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023.11.23 08:00</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>1.79986</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2023.11.24 01:52</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>1.80174</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>-1,14 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>GBPCAD</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023.11.23 10:30</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>1.71586</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2023.11.23 11:00</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>1.71839</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>1,85 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>GBPAUD</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023.11.23 10:30</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>1.9123</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2023.11.23 11:00</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>1.91349</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>0,78 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>EURNZD</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023.11.22 15:17</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>1.80974</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2023.11.23 10:59</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>1.80569</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>-2,45 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>EURNZD</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023.11.23 08:00</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>1.8002</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2023.11.23 10:59</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>1.80569</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>3,32 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>EURNZD</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023.11.23 03:00</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>1.80383</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2023.11.23 10:59</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>1.80569</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>1,13 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>GBPCAD</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023.11.22 13:17</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>1.7202</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2023.11.23 10:30</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>1.71727</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>-2,14 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>GBPCAD</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023.11.22 18:00</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>1.71228</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2023.11.23 10:30</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>1.71727</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>3,65 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>GBPCAD</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023.11.22 16:00</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>1.71604</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2023.11.23 10:30</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>1.71727</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>0,90 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>GBPUSD</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023.11.23 09:29</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>1.25263</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2023.11.23 10:30</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>1.25363</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>1,00 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>GBPAUD</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023.11.22 14:00</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>1.91042</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2023.11.23 10:30</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>1.90949</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>-0,61 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>GBPAUD</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023.11.23 07:00</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>1.90635</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2023.11.23 10:30</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>1.90949</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>2,06 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>GBPUSD</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023.11.22 13:12</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>1.25448</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2023.11.23 09:29</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>1.25242</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>-2,06 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>GBPUSD</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023.11.22 16:00</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>1.24816</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2023.11.23 09:29</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>1.25242</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>4,26 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>USDCAD</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023.11.23 07:00</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>1.36632</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2023.11.23 08:34</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>1.36532</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>0,73 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>GBPAUD</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023.11.23 03:16</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>1.9058</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2023.11.23 08:28</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>1.9048</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>0,65 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>EURNZD</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023.11.23 07:00</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>1.80055</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2023.11.23 07:41</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>1.79955</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>0,61 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>GBPCAD</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023.11.22 19:00</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>1.71038</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2023.11.23 07:37</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>1.70938</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>0,73 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>EURNZD</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023.11.23 04:00</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>1.80199</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2023.11.23 06:47</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>1.80099</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>0,60 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>USDCAD</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023.11.22 21:58</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>1.36916</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2023.11.23 06:21</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>1.36816</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>0,73 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>EURNZD</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2023.11.23 03:00</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>1.80342</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2023.11.23 04:00</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>1.80237</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>0,64 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>GBPAUD</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023.11.22 16:45</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>1.90722</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2023.11.23 03:16</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>1.90622</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>0,65 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>EURNZD</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023.11.23 02:27</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>1.8048</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2023.11.23 03:00</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>1.80383</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>0,59 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>EURNZD</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2023.11.22 15:00</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>1.80823</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2023.11.23 02:27</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>1.80519</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>1,83 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>EURNZD</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2023.11.22 12:17</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>1.80434</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2023.11.23 02:27</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>1.80519</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>-0,52 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>USDCAD</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2023.11.21 15:54</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>1.36906</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2023.11.22 21:58</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>1.3695</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>-0,32 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>USDCAD</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2023.11.22 08:00</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>1.37213</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2023.11.22 21:58</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>1.3695</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>1,92 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>GBPCAD</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2023.11.22 16:49</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>1.71174</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2023.11.22 19:00</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>1.71074</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>0,73 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>GBPCAD</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2023.11.17 17:00</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>1.70683</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2023.11.22 16:49</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>1.7121</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>-3,83 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
           <t>0,02</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>GBPCAD</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2023.11.20 16:00</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>1.71619</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2023.11.22 16:49</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>1.7121</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>5,95 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>GBPCAD</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2023.11.21 11:00</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>1.72016</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2023.11.22 16:49</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>1.7121</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>11,73 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>GBPCAD</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2023.11.17 09:53</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>1.70245</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2023.11.22 16:49</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>1.7121</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>-7,02 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>GBPCAD</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2023.11.20 07:00</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>1.71041</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2023.11.22 16:49</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>1.7121</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>-1,22 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
         <is>
           <t>GBPAUD</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2023.11.22 12:10</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>1.90853</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2023.11.22 16:45</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>1.90753</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>0,66 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>USDCAD</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2023.11.17 20:00</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>1.37156</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2023.11.22 16:02</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>1.37575</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>3,05 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>USDCAD</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2023.11.16 18:00</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>1.37774</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2023.11.22 16:02</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>1.37575</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>-1,45 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>USDCAD</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2023.11.17 10:00</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>1.37466</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2023.11.22 16:02</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>1.37575</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>0,79 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>EURNZD</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2023.11.22 12:00</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>1.80641</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2023.11.22 15:17</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>1.80942</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>1,81 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>EURNZD</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2023.11.22 09:00</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>1.81023</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2023.11.22 15:17</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>1.80942</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>-0,49 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>GBPAUD</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2023.11.22 13:00</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>1.90996</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2023.11.22 13:48</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>1.91096</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>0,66 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>GBPCAD</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2023.11.21 14:01</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>1.72112</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2023.11.22 13:17</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>1.71988</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>-0,90 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>GBPCAD</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2023.11.21 17:00</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>1.71644</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2023.11.22 13:17</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>1.71988</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>2,51 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>GBPUSD</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2023.11.21 11:40</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>1.25499</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2023.11.22 13:12</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>1.25432</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>-0,67 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>GBPUSD</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2023.11.22 10:00</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>1.25145</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2023.11.22 13:12</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>1.25432</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>2,87 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>EURNZD</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2023.11.22 09:00</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>1.81002</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2023.11.22 12:17</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>1.80479</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>3,16 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>EURNZD</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2023.11.22 06:00</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>1.80591</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2023.11.22 12:17</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>1.80479</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>0,67 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>EURNZD</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2023.11.22 02:15</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>1.80173</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2023.11.22 12:17</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>1.80479</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>-1,85 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>GBPAUD</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2023.11.21 17:00</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>1.91026</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2023.11.22 12:10</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>1.90882</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>0,95 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>GBPAUD</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2023.11.21 16:00</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>1.90483</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2023.11.22 12:10</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>1.90882</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>-2,62 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>GBPAUD</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:00</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>1.91467</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2023.11.22 12:10</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>1.90882</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>3,85 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>GBPAUD</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2023.11.22 08:00</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>1.91599</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2023.11.22 09:17</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>1.91699</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>0,65 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>EURNZD</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2023.11.21 10:00</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>1.80202</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2023.11.22 09:00</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>1.81007</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>9,71 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>EURNZD</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2023.11.21 04:00</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>1.8066</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2023.11.22 09:00</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>1.81007</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>4,19 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>EURNZD</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2023.11.21 02:00</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>1.81103</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2023.11.22 09:00</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>1.81007</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>-0,58 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>EURNZD</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2023.11.20 20:00</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>1.81528</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2023.11.22 09:00</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>1.81007</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>-3,14 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>EURNZD</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2023.11.20 15:35</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>1.81922</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2023.11.22 09:00</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>1.81007</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>-5,52 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>GBPAUD</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:00</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>1.915</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:17</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>1.916</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>0,65 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>GBPAUD</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2023.11.22 03:10</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>1.91395</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2023.11.22 06:56</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>1.91495</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>0,65 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>GBPAUD</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2023.11.21 21:00</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>1.91252</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2023.11.22 03:10</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>1.91352</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>0,66 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>EURNZD</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2023.11.21 20:00</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>1.80513</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2023.11.22 02:15</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>1.80219</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>1,78 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>EURNZD</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2023.11.21 16:00</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>1.80145</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2023.11.22 02:15</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>1.80219</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>-0,45 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>GBPAUD</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2023.11.21 19:00</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>1.91251</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2023.11.21 19:24</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>1.91351</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>0,65 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>GBPAUD</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
         <is>
           <t>2023.11.20 09:00</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="E173" t="inlineStr">
         <is>
           <t>1.90374</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="F173" t="inlineStr">
         <is>
           <t>2023.11.21 18:48</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
+      <c r="G173" t="inlineStr">
         <is>
           <t>1.91163</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
+      <c r="H173" t="inlineStr">
         <is>
           <t>10,35 USD</t>
         </is>

--- a/resources/БАЗА ДАННЫХ/litefinance/excel/PhanCongKhanh.xlsx
+++ b/resources/БАЗА ДАННЫХ/litefinance/excel/PhanCongKhanh.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H173"/>
+  <dimension ref="A1:H180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -503,27 +503,27 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2023.11.30 05:05</t>
+          <t>2023.11.28 17:00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.91266</t>
+          <t>1.72242</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2023.11.30 06:00</t>
+          <t>2023.11.30 11:18</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.91087</t>
+          <t>1.72049</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1,19 USD</t>
+          <t>1,42 USD</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -545,39 +545,39 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2023.11.29 13:00</t>
+          <t>2023.11.28 15:00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.91601</t>
+          <t>1.71861</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2023.11.30 05:05</t>
+          <t>2023.11.30 11:18</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.91304</t>
+          <t>1.72049</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1,97 USD</t>
+          <t>-1,38 USD</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -587,27 +587,27 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2023.11.29 10:00</t>
+          <t>2023.11.29 20:00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.91226</t>
+          <t>1.72663</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2023.11.30 05:05</t>
+          <t>2023.11.30 11:18</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.91304</t>
+          <t>1.72049</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-0,52 USD</t>
+          <t>9,02 USD</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -629,27 +629,27 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2023.11.30 03:00</t>
+          <t>2023.11.28 13:08</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.7785</t>
+          <t>1.71364</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2023.11.30 03:46</t>
+          <t>2023.11.30 11:18</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.7775</t>
+          <t>1.72049</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0,62 USD</t>
+          <t>-5,03 USD</t>
         </is>
       </c>
     </row>
@@ -671,22 +671,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2023.11.30 02:00</t>
+          <t>2023.11.30 09:00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.77969</t>
+          <t>1.7729</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2023.11.30 02:20</t>
+          <t>2023.11.30 10:05</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.77869</t>
+          <t>1.7719</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -713,27 +713,27 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2023.11.29 12:00</t>
+          <t>2023.11.30 08:50</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.7853</t>
+          <t>1.77436</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2023.11.30 01:58</t>
+          <t>2023.11.30 09:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.7802</t>
+          <t>1.77336</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>3,15 USD</t>
+          <t>0,62 USD</t>
         </is>
       </c>
     </row>
@@ -755,27 +755,27 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2023.11.29 09:00</t>
+          <t>2023.11.30 04:00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.78159</t>
+          <t>1.77577</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2023.11.30 01:58</t>
+          <t>2023.11.30 08:50</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.7802</t>
+          <t>1.77477</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0,86 USD</t>
+          <t>0,62 USD</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -797,27 +797,27 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2023.11.29 06:26</t>
+          <t>2023.11.30 05:05</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.77702</t>
+          <t>1.91266</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2023.11.30 01:58</t>
+          <t>2023.11.30 06:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.7802</t>
+          <t>1.91087</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>-1,96 USD</t>
+          <t>1,19 USD</t>
         </is>
       </c>
     </row>
@@ -829,37 +829,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2023.11.29 11:00</t>
+          <t>2023.11.29 13:00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.26817</t>
+          <t>1.91601</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2023.11.29 19:50</t>
+          <t>2023.11.30 05:05</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.27153</t>
+          <t>1.91304</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>3,36 USD</t>
+          <t>1,97 USD</t>
         </is>
       </c>
     </row>
@@ -871,37 +871,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2023.11.29 02:01</t>
+          <t>2023.11.29 10:00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.27269</t>
+          <t>1.91226</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2023.11.29 19:50</t>
+          <t>2023.11.30 05:05</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.27153</t>
+          <t>1.91304</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>-1,16 USD</t>
+          <t>-0,52 USD</t>
         </is>
       </c>
     </row>
@@ -913,37 +913,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2023.11.29 15:00</t>
+          <t>2023.11.30 03:00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.91782</t>
+          <t>1.7785</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2023.11.29 19:26</t>
+          <t>2023.11.30 03:46</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.91882</t>
+          <t>1.7775</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0,67 USD</t>
+          <t>0,62 USD</t>
         </is>
       </c>
     </row>
@@ -955,37 +955,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2023.11.28 18:26</t>
+          <t>2023.11.30 02:00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.72495</t>
+          <t>1.77969</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2023.11.29 18:06</t>
+          <t>2023.11.30 02:20</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.72595</t>
+          <t>1.77869</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0,74 USD</t>
+          <t>0,62 USD</t>
         </is>
       </c>
     </row>
@@ -997,37 +997,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2023.11.29 12:45</t>
+          <t>2023.11.29 12:00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.91664</t>
+          <t>1.7853</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2023.11.29 14:25</t>
+          <t>2023.11.30 01:58</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.91764</t>
+          <t>1.7802</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0,66 USD</t>
+          <t>3,15 USD</t>
         </is>
       </c>
     </row>
@@ -1039,37 +1039,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2023.11.29 07:12</t>
+          <t>2023.11.29 09:00</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.91522</t>
+          <t>1.78159</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2023.11.29 12:45</t>
+          <t>2023.11.30 01:58</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.91622</t>
+          <t>1.7802</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0,66 USD</t>
+          <t>0,86 USD</t>
         </is>
       </c>
     </row>
@@ -1081,12 +1081,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1096,22 +1096,22 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.91377</t>
+          <t>1.77702</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2023.11.29 07:12</t>
+          <t>2023.11.30 01:58</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.91477</t>
+          <t>1.7802</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0,66 USD</t>
+          <t>-1,96 USD</t>
         </is>
       </c>
     </row>
@@ -1123,7 +1123,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1133,27 +1133,27 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2023.11.29 04:07</t>
+          <t>2023.11.29 11:00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.91211</t>
+          <t>1.26817</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2023.11.29 06:26</t>
+          <t>2023.11.29 19:50</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1.91311</t>
+          <t>1.27153</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0,66 USD</t>
+          <t>3,36 USD</t>
         </is>
       </c>
     </row>
@@ -1165,37 +1165,37 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2023.11.29 06:00</t>
+          <t>2023.11.29 02:01</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.77505</t>
+          <t>1.27269</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2023.11.29 06:07</t>
+          <t>2023.11.29 19:50</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1.77405</t>
+          <t>1.27153</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0,62 USD</t>
+          <t>-1,16 USD</t>
         </is>
       </c>
     </row>
@@ -1207,37 +1207,37 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2023.11.29 03:00</t>
+          <t>2023.11.29 15:00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.77733</t>
+          <t>1.91782</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2023.11.29 05:23</t>
+          <t>2023.11.29 19:26</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1.77633</t>
+          <t>1.91882</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0,62 USD</t>
+          <t>0,67 USD</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1259,27 +1259,27 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2023.11.29 02:00</t>
+          <t>2023.11.28 18:26</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.9107</t>
+          <t>1.72495</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2023.11.29 04:07</t>
+          <t>2023.11.29 18:06</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1.9117</t>
+          <t>1.72595</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0,66 USD</t>
+          <t>0,74 USD</t>
         </is>
       </c>
     </row>
@@ -1291,37 +1291,37 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2023.11.29 02:00</t>
+          <t>2023.11.29 12:45</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.7878</t>
+          <t>1.91664</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2023.11.29 03:00</t>
+          <t>2023.11.29 14:25</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1.77771</t>
+          <t>1.91764</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>6,25 USD</t>
+          <t>0,66 USD</t>
         </is>
       </c>
     </row>
@@ -1333,37 +1333,37 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2023.11.29 01:52</t>
+          <t>2023.11.29 07:12</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.35538</t>
+          <t>1.91522</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2023.11.29 02:42</t>
+          <t>2023.11.29 12:45</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1.35438</t>
+          <t>1.91622</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0,74 USD</t>
+          <t>0,66 USD</t>
         </is>
       </c>
     </row>
@@ -1380,32 +1380,32 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2023.11.28 20:00</t>
+          <t>2023.11.29 06:26</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.91043</t>
+          <t>1.91377</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2023.11.29 02:15</t>
+          <t>2023.11.29 07:12</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1.90736</t>
+          <t>1.91477</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2,05 USD</t>
+          <t>0,66 USD</t>
         </is>
       </c>
     </row>
@@ -1422,32 +1422,32 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2023.11.28 17:32</t>
+          <t>2023.11.29 04:07</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.90649</t>
+          <t>1.91211</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2023.11.29 02:15</t>
+          <t>2023.11.29 06:26</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1.90736</t>
+          <t>1.91311</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>-0,58 USD</t>
+          <t>0,66 USD</t>
         </is>
       </c>
     </row>
@@ -1459,37 +1459,37 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2023.11.28 18:00</t>
+          <t>2023.11.29 06:00</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.27143</t>
+          <t>1.77505</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2023.11.29 02:01</t>
+          <t>2023.11.29 06:07</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1.27243</t>
+          <t>1.77405</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>1,00 USD</t>
+          <t>0,62 USD</t>
         </is>
       </c>
     </row>
@@ -1501,37 +1501,37 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2023.11.28 17:21</t>
+          <t>2023.11.29 03:00</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.66569</t>
+          <t>1.77733</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2023.11.29 02:01</t>
+          <t>2023.11.29 05:23</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.66669</t>
+          <t>1.77633</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>1,00 USD</t>
+          <t>0,62 USD</t>
         </is>
       </c>
     </row>
@@ -1543,37 +1543,37 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2023.11.28 17:00</t>
+          <t>2023.11.29 02:00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.79019</t>
+          <t>1.9107</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2023.11.29 02:00</t>
+          <t>2023.11.29 04:07</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1.78919</t>
+          <t>1.9117</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0,61 USD</t>
+          <t>0,66 USD</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1595,27 +1595,27 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2023.11.28 17:18</t>
+          <t>2023.11.29 02:00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.3567</t>
+          <t>1.7878</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2023.11.29 01:52</t>
+          <t>2023.11.29 03:00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1.3557</t>
+          <t>1.77771</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0,74 USD</t>
+          <t>6,25 USD</t>
         </is>
       </c>
     </row>
@@ -1627,37 +1627,37 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2023.11.27 05:00</t>
+          <t>2023.11.29 01:52</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.91807</t>
+          <t>1.35538</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2023.11.29 01:31</t>
+          <t>2023.11.29 02:42</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1.91324</t>
+          <t>1.35438</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>-3,21 USD</t>
+          <t>0,74 USD</t>
         </is>
       </c>
     </row>
@@ -1674,32 +1674,32 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2023.11.28 06:00</t>
+          <t>2023.11.28 20:00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.9074</t>
+          <t>1.91043</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2023.11.29 01:31</t>
+          <t>2023.11.29 02:15</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1.91324</t>
+          <t>1.90736</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>3,88 USD</t>
+          <t>2,05 USD</t>
         </is>
       </c>
     </row>
@@ -1716,32 +1716,32 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2023.11.27 10:00</t>
+          <t>2023.11.28 17:32</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.91095</t>
+          <t>1.90649</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2023.11.29 01:31</t>
+          <t>2023.11.29 02:15</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1.91324</t>
+          <t>1.90736</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>1,52 USD</t>
+          <t>-0,58 USD</t>
         </is>
       </c>
     </row>
@@ -1753,7 +1753,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1763,27 +1763,27 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2023.11.28 17:06</t>
+          <t>2023.11.28 18:00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.72363</t>
+          <t>1.27143</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2023.11.28 18:26</t>
+          <t>2023.11.29 02:01</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>1.72463</t>
+          <t>1.27243</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0,74 USD</t>
+          <t>1,00 USD</t>
         </is>
       </c>
     </row>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>AUDUSD</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1805,27 +1805,27 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2023.11.28 17:00</t>
+          <t>2023.11.28 17:21</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.26836</t>
+          <t>0.66569</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2023.11.28 18:00</t>
+          <t>2023.11.29 02:01</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>1.27104</t>
+          <t>0.66669</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2,68 USD</t>
+          <t>1,00 USD</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1847,27 +1847,27 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2023.11.28 13:00</t>
+          <t>2023.11.28 17:00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.90788</t>
+          <t>1.79019</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2023.11.28 17:32</t>
+          <t>2023.11.29 02:00</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>1.90688</t>
+          <t>1.78919</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>0,67 USD</t>
+          <t>0,61 USD</t>
         </is>
       </c>
     </row>
@@ -1879,37 +1879,37 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2023.11.28 16:39</t>
+          <t>2023.11.28 17:18</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.66443</t>
+          <t>1.3567</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2023.11.28 17:21</t>
+          <t>2023.11.29 01:52</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.66543</t>
+          <t>1.3557</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>1,00 USD</t>
+          <t>0,74 USD</t>
         </is>
       </c>
     </row>
@@ -1921,37 +1921,37 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2023.11.28 11:11</t>
+          <t>2023.11.27 05:00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1.35801</t>
+          <t>1.91807</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2023.11.28 17:18</t>
+          <t>2023.11.29 01:31</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>1.35701</t>
+          <t>1.91324</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0,74 USD</t>
+          <t>-3,21 USD</t>
         </is>
       </c>
     </row>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1973,27 +1973,27 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2023.11.28 16:23</t>
+          <t>2023.11.28 06:00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.72232</t>
+          <t>1.9074</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2023.11.28 17:06</t>
+          <t>2023.11.29 01:31</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1.72332</t>
+          <t>1.91324</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0,74 USD</t>
+          <t>3,88 USD</t>
         </is>
       </c>
     </row>
@@ -2005,37 +2005,37 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2023.11.28 16:34</t>
+          <t>2023.11.27 10:00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1.79424</t>
+          <t>1.91095</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2023.11.28 17:00</t>
+          <t>2023.11.29 01:31</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>1.79057</t>
+          <t>1.91324</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2,25 USD</t>
+          <t>1,52 USD</t>
         </is>
       </c>
     </row>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2057,27 +2057,27 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2023.11.28 16:04</t>
+          <t>2023.11.28 17:06</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1.26674</t>
+          <t>1.72363</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2023.11.28 17:00</t>
+          <t>2023.11.28 18:26</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>1.26812</t>
+          <t>1.72463</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>1,38 USD</t>
+          <t>0,74 USD</t>
         </is>
       </c>
     </row>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2099,27 +2099,27 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2023.11.28 03:36</t>
+          <t>2023.11.28 17:00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.66311</t>
+          <t>1.26836</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2023.11.28 16:39</t>
+          <t>2023.11.28 18:00</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.66411</t>
+          <t>1.27104</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>1,00 USD</t>
+          <t>2,68 USD</t>
         </is>
       </c>
     </row>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2141,27 +2141,27 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2023.11.28 10:00</t>
+          <t>2023.11.28 13:00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1.79857</t>
+          <t>1.90788</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2023.11.28 16:34</t>
+          <t>2023.11.28 17:32</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>1.79462</t>
+          <t>1.90688</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2,42 USD</t>
+          <t>0,67 USD</t>
         </is>
       </c>
     </row>
@@ -2173,37 +2173,37 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>AUDUSD</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2023.11.28 03:36</t>
+          <t>2023.11.28 16:39</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1.79286</t>
+          <t>0.66443</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2023.11.28 16:34</t>
+          <t>2023.11.28 17:21</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>1.79462</t>
+          <t>0.66543</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>-1,08 USD</t>
+          <t>1,00 USD</t>
         </is>
       </c>
     </row>
@@ -2215,37 +2215,37 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2023.11.28 15:32</t>
+          <t>2023.11.28 11:11</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.72092</t>
+          <t>1.35801</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2023.11.28 16:23</t>
+          <t>2023.11.28 17:18</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>1.72192</t>
+          <t>1.35701</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>0,73 USD</t>
+          <t>0,74 USD</t>
         </is>
       </c>
     </row>
@@ -2257,7 +2257,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2267,27 +2267,27 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2023.11.28 15:24</t>
+          <t>2023.11.28 16:23</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.26542</t>
+          <t>1.72232</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2023.11.28 16:04</t>
+          <t>2023.11.28 17:06</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>1.26642</t>
+          <t>1.72332</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>1,00 USD</t>
+          <t>0,74 USD</t>
         </is>
       </c>
     </row>
@@ -2299,37 +2299,37 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2023.11.28 09:00</t>
+          <t>2023.11.28 16:34</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.71544</t>
+          <t>1.79424</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2023.11.28 15:32</t>
+          <t>2023.11.28 17:00</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>1.72052</t>
+          <t>1.79057</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>3,73 USD</t>
+          <t>2,25 USD</t>
         </is>
       </c>
     </row>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2351,27 +2351,27 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2023.11.27 17:00</t>
+          <t>2023.11.28 16:04</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.71924</t>
+          <t>1.26674</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2023.11.28 15:32</t>
+          <t>2023.11.28 17:00</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>1.72052</t>
+          <t>1.26812</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>0,94 USD</t>
+          <t>1,38 USD</t>
         </is>
       </c>
     </row>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>AUDUSD</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2393,27 +2393,27 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2023.11.27 13:38</t>
+          <t>2023.11.28 03:36</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.72358</t>
+          <t>0.66311</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2023.11.28 15:32</t>
+          <t>2023.11.28 16:39</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1.72052</t>
+          <t>0.66411</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>-2,26 USD</t>
+          <t>1,00 USD</t>
         </is>
       </c>
     </row>
@@ -2425,37 +2425,37 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2023.11.27 13:10</t>
+          <t>2023.11.28 10:00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.26393</t>
+          <t>1.79857</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2023.11.28 15:24</t>
+          <t>2023.11.28 16:34</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1.26493</t>
+          <t>1.79462</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>1,00 USD</t>
+          <t>2,42 USD</t>
         </is>
       </c>
     </row>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2477,27 +2477,27 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2023.11.28 08:46</t>
+          <t>2023.11.28 03:36</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.71501</t>
+          <t>1.79286</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2023.11.28 13:08</t>
+          <t>2023.11.28 16:34</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1.71401</t>
+          <t>1.79462</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>0,74 USD</t>
+          <t>-1,08 USD</t>
         </is>
       </c>
     </row>
@@ -2509,37 +2509,37 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2023.11.28 10:00</t>
+          <t>2023.11.28 15:32</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1.91164</t>
+          <t>1.72092</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2023.11.28 12:35</t>
+          <t>2023.11.28 16:23</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>1.90783</t>
+          <t>1.72192</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2,52 USD</t>
+          <t>0,73 USD</t>
         </is>
       </c>
     </row>
@@ -2551,37 +2551,37 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2023.11.28 03:36</t>
+          <t>2023.11.28 15:24</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1.90621</t>
+          <t>1.26542</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2023.11.28 12:35</t>
+          <t>2023.11.28 16:04</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>1.90783</t>
+          <t>1.26642</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>-1,07 USD</t>
+          <t>1,00 USD</t>
         </is>
       </c>
     </row>
@@ -2593,37 +2593,37 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2023.11.28 08:00</t>
+          <t>2023.11.28 09:00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.35942</t>
+          <t>1.71544</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2023.11.28 11:11</t>
+          <t>2023.11.28 15:32</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>1.35842</t>
+          <t>1.72052</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>0,74 USD</t>
+          <t>3,73 USD</t>
         </is>
       </c>
     </row>
@@ -2640,32 +2640,32 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2023.11.23 11:00</t>
+          <t>2023.11.27 17:00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.71833</t>
+          <t>1.71924</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2023.11.28 08:46</t>
+          <t>2023.11.28 15:32</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>1.71539</t>
+          <t>1.72052</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2,16 USD</t>
+          <t>0,94 USD</t>
         </is>
       </c>
     </row>
@@ -2682,32 +2682,32 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2023.11.23 07:37</t>
+          <t>2023.11.27 13:38</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.70902</t>
+          <t>1.72358</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2023.11.28 08:46</t>
+          <t>2023.11.28 15:32</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1.71539</t>
+          <t>1.72052</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>-4,68 USD</t>
+          <t>-2,26 USD</t>
         </is>
       </c>
     </row>
@@ -2719,37 +2719,37 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2023.11.27 13:00</t>
+          <t>2023.11.27 13:10</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1.72211</t>
+          <t>1.26393</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2023.11.28 08:46</t>
+          <t>2023.11.28 15:24</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1.71539</t>
+          <t>1.26493</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>4,94 USD</t>
+          <t>1,00 USD</t>
         </is>
       </c>
     </row>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2771,22 +2771,22 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2023.11.28 00:53</t>
+          <t>2023.11.28 08:46</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1.3607</t>
+          <t>1.71501</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2023.11.28 07:31</t>
+          <t>2023.11.28 13:08</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>1.3597</t>
+          <t>1.71401</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2813,27 +2813,27 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2023.11.28 02:05</t>
+          <t>2023.11.28 10:00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1.79423</t>
+          <t>1.91164</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2023.11.28 03:36</t>
+          <t>2023.11.28 12:35</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>1.79323</t>
+          <t>1.90783</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>0,61 USD</t>
+          <t>2,52 USD</t>
         </is>
       </c>
     </row>
@@ -2845,37 +2845,37 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2023.11.28 03:00</t>
+          <t>2023.11.28 03:36</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>0.66201</t>
+          <t>1.90621</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2023.11.28 03:35</t>
+          <t>2023.11.28 12:35</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0.66301</t>
+          <t>1.90783</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>1,00 USD</t>
+          <t>-1,07 USD</t>
         </is>
       </c>
     </row>
@@ -2887,7 +2887,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2897,27 +2897,27 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2023.11.28 03:00</t>
+          <t>2023.11.28 08:00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1.90874</t>
+          <t>1.35942</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2023.11.28 03:23</t>
+          <t>2023.11.28 11:11</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>1.90774</t>
+          <t>1.35842</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>0,66 USD</t>
+          <t>0,74 USD</t>
         </is>
       </c>
     </row>
@@ -2929,37 +2929,37 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2023.11.27 14:32</t>
+          <t>2023.11.23 11:00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0.66141</t>
+          <t>1.71833</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2023.11.28 02:12</t>
+          <t>2023.11.28 08:46</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>0.66241</t>
+          <t>1.71539</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>1,00 USD</t>
+          <t>2,16 USD</t>
         </is>
       </c>
     </row>
@@ -2971,7 +2971,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2981,27 +2981,27 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2023.11.27 17:00</t>
+          <t>2023.11.23 07:37</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1.91003</t>
+          <t>1.70902</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2023.11.28 02:07</t>
+          <t>2023.11.28 08:46</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>1.90903</t>
+          <t>1.71539</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>0,66 USD</t>
+          <t>-4,68 USD</t>
         </is>
       </c>
     </row>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3023,27 +3023,27 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2023.11.28 00:00</t>
+          <t>2023.11.27 13:00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>1.79751</t>
+          <t>1.72211</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2023.11.28 02:05</t>
+          <t>2023.11.28 08:46</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>1.7946</t>
+          <t>1.71539</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>1,78 USD</t>
+          <t>4,94 USD</t>
         </is>
       </c>
     </row>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3065,27 +3065,27 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2023.11.27 20:25</t>
+          <t>2023.11.28 00:53</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>1.79388</t>
+          <t>1.3607</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2023.11.28 02:05</t>
+          <t>2023.11.28 07:31</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>1.7946</t>
+          <t>1.3597</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>-0,44 USD</t>
+          <t>0,74 USD</t>
         </is>
       </c>
     </row>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3107,27 +3107,27 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2023.11.27 02:00</t>
+          <t>2023.11.28 02:05</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1.36367</t>
+          <t>1.79423</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2023.11.28 00:53</t>
+          <t>2023.11.28 03:36</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>1.36104</t>
+          <t>1.79323</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>1,93 USD</t>
+          <t>0,61 USD</t>
         </is>
       </c>
     </row>
@@ -3139,37 +3139,37 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>AUDUSD</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2023.11.24 16:00</t>
+          <t>2023.11.28 03:00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1.3606</t>
+          <t>0.66201</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2023.11.28 00:53</t>
+          <t>2023.11.28 03:35</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>1.36104</t>
+          <t>0.66301</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>-0,32 USD</t>
+          <t>1,00 USD</t>
         </is>
       </c>
     </row>
@@ -3181,7 +3181,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3191,27 +3191,27 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2023.11.27 14:00</t>
+          <t>2023.11.28 03:00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1.79526</t>
+          <t>1.90874</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2023.11.27 20:25</t>
+          <t>2023.11.28 03:23</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>1.79426</t>
+          <t>1.90774</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>0,61 USD</t>
+          <t>0,66 USD</t>
         </is>
       </c>
     </row>
@@ -3223,37 +3223,37 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>AUDUSD</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2023.11.27 16:00</t>
+          <t>2023.11.27 14:32</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1.91418</t>
+          <t>0.66141</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2023.11.27 16:55</t>
+          <t>2023.11.28 02:12</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>1.9112</t>
+          <t>0.66241</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>1,96 USD</t>
+          <t>1,00 USD</t>
         </is>
       </c>
     </row>
@@ -3275,27 +3275,27 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2023.11.27 09:49</t>
+          <t>2023.11.27 17:00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1.91041</t>
+          <t>1.91003</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2023.11.27 16:55</t>
+          <t>2023.11.28 02:07</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>1.9112</t>
+          <t>1.90903</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>-0,52 USD</t>
+          <t>0,66 USD</t>
         </is>
       </c>
     </row>
@@ -3307,37 +3307,37 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2023.11.27 09:37</t>
+          <t>2023.11.28 00:00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0.66013</t>
+          <t>1.79751</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2023.11.27 14:32</t>
+          <t>2023.11.28 02:05</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>0.66113</t>
+          <t>1.7946</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>1,00 USD</t>
+          <t>1,78 USD</t>
         </is>
       </c>
     </row>
@@ -3359,27 +3359,27 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2023.11.27 13:00</t>
+          <t>2023.11.27 20:25</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1.79672</t>
+          <t>1.79388</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2023.11.27 13:57</t>
+          <t>2023.11.28 02:05</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>1.79572</t>
+          <t>1.7946</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>0,61 USD</t>
+          <t>-0,44 USD</t>
         </is>
       </c>
     </row>
@@ -3391,37 +3391,37 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2023.11.27 07:00</t>
+          <t>2023.11.27 02:00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1.72216</t>
+          <t>1.36367</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2023.11.27 13:38</t>
+          <t>2023.11.28 00:53</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>1.72316</t>
+          <t>1.36104</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>0,73 USD</t>
+          <t>1,93 USD</t>
         </is>
       </c>
     </row>
@@ -3433,37 +3433,37 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2023.11.27 08:12</t>
+          <t>2023.11.24 16:00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1.26264</t>
+          <t>1.3606</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2023.11.27 13:10</t>
+          <t>2023.11.28 00:53</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>1.26364</t>
+          <t>1.36104</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>1,00 USD</t>
+          <t>-0,32 USD</t>
         </is>
       </c>
     </row>
@@ -3485,22 +3485,22 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2023.11.27 12:00</t>
+          <t>2023.11.27 14:00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>1.79712</t>
+          <t>1.79526</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2023.11.27 12:49</t>
+          <t>2023.11.27 20:25</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>1.79612</t>
+          <t>1.79426</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3517,7 +3517,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3527,27 +3527,27 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2023.11.27 11:00</t>
+          <t>2023.11.27 16:00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1.80116</t>
+          <t>1.91418</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2023.11.27 11:54</t>
+          <t>2023.11.27 16:55</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>1.7979</t>
+          <t>1.9112</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>1,99 USD</t>
+          <t>1,96 USD</t>
         </is>
       </c>
     </row>
@@ -3559,7 +3559,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3569,27 +3569,27 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2023.11.27 10:00</t>
+          <t>2023.11.27 09:49</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>1.79684</t>
+          <t>1.91041</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2023.11.27 11:54</t>
+          <t>2023.11.27 16:55</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>1.7979</t>
+          <t>1.9112</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>-0,64 USD</t>
+          <t>-0,52 USD</t>
         </is>
       </c>
     </row>
@@ -3601,37 +3601,37 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>AUDUSD</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2023.11.27 09:09</t>
+          <t>2023.11.27 09:37</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1.79891</t>
+          <t>0.66013</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2023.11.27 10:00</t>
+          <t>2023.11.27 14:32</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>1.79724</t>
+          <t>0.66113</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>1,02 USD</t>
+          <t>1,00 USD</t>
         </is>
       </c>
     </row>
@@ -3643,7 +3643,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3653,27 +3653,27 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2023.11.27 05:00</t>
+          <t>2023.11.27 13:00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1.91768</t>
+          <t>1.79672</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2023.11.27 09:49</t>
+          <t>2023.11.27 13:57</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>1.91076</t>
+          <t>1.79572</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>4,56 USD</t>
+          <t>0,61 USD</t>
         </is>
       </c>
     </row>
@@ -3685,37 +3685,37 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2023.11.23 11:00</t>
+          <t>2023.11.27 07:00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1.91349</t>
+          <t>1.72216</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2023.11.27 09:49</t>
+          <t>2023.11.27 13:38</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>1.91076</t>
+          <t>1.72316</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>1,80 USD</t>
+          <t>0,73 USD</t>
         </is>
       </c>
     </row>
@@ -3727,37 +3727,37 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2023.11.23 08:28</t>
+          <t>2023.11.27 08:12</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1.90442</t>
+          <t>1.26264</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2023.11.27 09:49</t>
+          <t>2023.11.27 13:10</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>1.91076</t>
+          <t>1.26364</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>-4,19 USD</t>
+          <t>1,00 USD</t>
         </is>
       </c>
     </row>
@@ -3769,37 +3769,37 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2023.11.27 03:00</t>
+          <t>2023.11.27 12:00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>0.65888</t>
+          <t>1.79712</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2023.11.27 09:37</t>
+          <t>2023.11.27 12:49</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>0.65988</t>
+          <t>1.79612</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>1,00 USD</t>
+          <t>0,61 USD</t>
         </is>
       </c>
     </row>
@@ -3821,27 +3821,27 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2023.11.27 04:00</t>
+          <t>2023.11.27 11:00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>1.80356</t>
+          <t>1.80116</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2023.11.27 09:09</t>
+          <t>2023.11.27 11:54</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>1.79932</t>
+          <t>1.7979</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2,58 USD</t>
+          <t>1,99 USD</t>
         </is>
       </c>
     </row>
@@ -3863,27 +3863,27 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2023.11.24 16:41</t>
+          <t>2023.11.27 10:00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>1.79728</t>
+          <t>1.79684</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2023.11.27 09:09</t>
+          <t>2023.11.27 11:54</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>1.79932</t>
+          <t>1.7979</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>-1,24 USD</t>
+          <t>-0,64 USD</t>
         </is>
       </c>
     </row>
@@ -3895,37 +3895,37 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2023.11.24 17:00</t>
+          <t>2023.11.27 09:09</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>1.26139</t>
+          <t>1.79891</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2023.11.27 08:12</t>
+          <t>2023.11.27 10:00</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>1.26239</t>
+          <t>1.79724</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>1,00 USD</t>
+          <t>1,02 USD</t>
         </is>
       </c>
     </row>
@@ -3937,37 +3937,37 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2023.11.24 19:49</t>
+          <t>2023.11.27 05:00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>1.72074</t>
+          <t>1.91768</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2023.11.27 07:00</t>
+          <t>2023.11.27 09:49</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>1.72174</t>
+          <t>1.91076</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>0,73 USD</t>
+          <t>4,56 USD</t>
         </is>
       </c>
     </row>
@@ -3984,32 +3984,32 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2023.11.27 04:23</t>
+          <t>2023.11.23 11:00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>1.91647</t>
+          <t>1.91349</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2023.11.27 05:00</t>
+          <t>2023.11.27 09:49</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>1.91771</t>
+          <t>1.91076</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>0,81 USD</t>
+          <t>1,80 USD</t>
         </is>
       </c>
     </row>
@@ -4021,37 +4021,37 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2023.11.27 03:32</t>
+          <t>2023.11.23 08:28</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>1.80343</t>
+          <t>1.90442</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2023.11.27 04:26</t>
+          <t>2023.11.27 09:49</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>1.80443</t>
+          <t>1.91076</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>0,61 USD</t>
+          <t>-4,19 USD</t>
         </is>
       </c>
     </row>
@@ -4063,7 +4063,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>AUDUSD</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4073,27 +4073,27 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2023.11.24 14:15</t>
+          <t>2023.11.27 03:00</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>1.91498</t>
+          <t>0.65888</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2023.11.27 04:23</t>
+          <t>2023.11.27 09:37</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>1.91598</t>
+          <t>0.65988</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>0,66 USD</t>
+          <t>1,00 USD</t>
         </is>
       </c>
     </row>
@@ -4110,32 +4110,32 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2023.11.24 02:00</t>
+          <t>2023.11.27 04:00</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1.80164</t>
+          <t>1.80356</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2023.11.27 03:32</t>
+          <t>2023.11.27 09:09</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>1.80301</t>
+          <t>1.79932</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>0,83 USD</t>
+          <t>2,58 USD</t>
         </is>
       </c>
     </row>
@@ -4152,32 +4152,32 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2023.11.23 10:59</t>
+          <t>2023.11.24 16:41</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>1.80606</t>
+          <t>1.79728</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2023.11.27 03:32</t>
+          <t>2023.11.27 09:09</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>1.80301</t>
+          <t>1.79932</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>-1,85 USD</t>
+          <t>-1,24 USD</t>
         </is>
       </c>
     </row>
@@ -4189,7 +4189,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4204,22 +4204,22 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>1.79802</t>
+          <t>1.26139</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2023.11.27 03:32</t>
+          <t>2023.11.27 08:12</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>1.80301</t>
+          <t>1.26239</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>3,02 USD</t>
+          <t>1,00 USD</t>
         </is>
       </c>
     </row>
@@ -4231,7 +4231,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4241,27 +4241,27 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2023.11.24 15:54</t>
+          <t>2023.11.24 19:49</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>0.65816</t>
+          <t>1.72074</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2023.11.27 02:28</t>
+          <t>2023.11.27 07:00</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>0.65916</t>
+          <t>1.72174</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>1,00 USD</t>
+          <t>0,73 USD</t>
         </is>
       </c>
     </row>
@@ -4273,7 +4273,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4283,27 +4283,27 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2023.11.24 12:00</t>
+          <t>2023.11.27 04:23</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>1.71988</t>
+          <t>1.91647</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2023.11.24 19:49</t>
+          <t>2023.11.27 05:00</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>1.71826</t>
+          <t>1.91771</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>-1,19 USD</t>
+          <t>0,81 USD</t>
         </is>
       </c>
     </row>
@@ -4315,7 +4315,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4325,27 +4325,27 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2023.11.24 16:00</t>
+          <t>2023.11.27 03:32</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>1.71443</t>
+          <t>1.80343</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2023.11.24 19:49</t>
+          <t>2023.11.27 04:26</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>1.71826</t>
+          <t>1.80443</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2,81 USD</t>
+          <t>0,61 USD</t>
         </is>
       </c>
     </row>
@@ -4357,7 +4357,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4367,27 +4367,27 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2023.11.24 16:00</t>
+          <t>2023.11.24 14:15</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>1.26001</t>
+          <t>1.91498</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2023.11.24 17:00</t>
+          <t>2023.11.27 04:23</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>1.26117</t>
+          <t>1.91598</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>1,16 USD</t>
+          <t>0,66 USD</t>
         </is>
       </c>
     </row>
@@ -4404,32 +4404,32 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2023.11.24 14:00</t>
+          <t>2023.11.24 02:00</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1.7987</t>
+          <t>1.80164</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2023.11.24 16:41</t>
+          <t>2023.11.27 03:32</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>1.7977</t>
+          <t>1.80301</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>0,61 USD</t>
+          <t>0,83 USD</t>
         </is>
       </c>
     </row>
@@ -4441,37 +4441,37 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2023.11.24 15:11</t>
+          <t>2023.11.23 10:59</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>1.36524</t>
+          <t>1.80606</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2023.11.24 16:00</t>
+          <t>2023.11.27 03:32</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>1.36084</t>
+          <t>1.80301</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>3,23 USD</t>
+          <t>-1,85 USD</t>
         </is>
       </c>
     </row>
@@ -4483,7 +4483,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4493,27 +4493,27 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2023.11.24 15:11</t>
+          <t>2023.11.24 17:00</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>1.25853</t>
+          <t>1.79802</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2023.11.24 16:00</t>
+          <t>2023.11.27 03:32</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>1.25972</t>
+          <t>1.80301</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>1,19 USD</t>
+          <t>3,02 USD</t>
         </is>
       </c>
     </row>
@@ -4535,27 +4535,27 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2023.11.21 04:21</t>
+          <t>2023.11.24 15:54</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>0.65831</t>
+          <t>0.65816</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2023.11.24 15:54</t>
+          <t>2023.11.27 02:28</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>0.65788</t>
+          <t>0.65916</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>-0,43 USD</t>
+          <t>1,00 USD</t>
         </is>
       </c>
     </row>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4577,27 +4577,27 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2023.11.21 20:00</t>
+          <t>2023.11.24 12:00</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>0.65525</t>
+          <t>1.71988</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2023.11.24 15:54</t>
+          <t>2023.11.24 19:49</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>0.65788</t>
+          <t>1.71826</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2,63 USD</t>
+          <t>-1,19 USD</t>
         </is>
       </c>
     </row>
@@ -4609,7 +4609,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4619,27 +4619,27 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2023.11.24 13:09</t>
+          <t>2023.11.24 16:00</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>1.25725</t>
+          <t>1.71443</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2023.11.24 15:11</t>
+          <t>2023.11.24 19:49</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>1.25825</t>
+          <t>1.71826</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>1,00 USD</t>
+          <t>2,81 USD</t>
         </is>
       </c>
     </row>
@@ -4651,37 +4651,37 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2023.11.23 11:00</t>
+          <t>2023.11.24 16:00</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>1.36827</t>
+          <t>1.26001</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2023.11.24 15:11</t>
+          <t>2023.11.24 17:00</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>1.36556</t>
+          <t>1.26117</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>1,98 USD</t>
+          <t>1,16 USD</t>
         </is>
       </c>
     </row>
@@ -4693,7 +4693,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4703,27 +4703,27 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2023.11.23 08:34</t>
+          <t>2023.11.24 14:00</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>1.36505</t>
+          <t>1.7987</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2023.11.24 15:11</t>
+          <t>2023.11.24 16:41</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>1.36556</t>
+          <t>1.7977</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>-0,37 USD</t>
+          <t>0,61 USD</t>
         </is>
       </c>
     </row>
@@ -4735,37 +4735,37 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2023.11.24 13:47</t>
+          <t>2023.11.24 15:11</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>1.91357</t>
+          <t>1.36524</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2023.11.24 14:15</t>
+          <t>2023.11.24 16:00</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>1.91457</t>
+          <t>1.36084</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>0,66 USD</t>
+          <t>3,23 USD</t>
         </is>
       </c>
     </row>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4787,27 +4787,27 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2023.11.23 18:00</t>
+          <t>2023.11.24 15:11</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>1.91013</t>
+          <t>1.25853</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2023.11.24 13:46</t>
+          <t>2023.11.24 16:00</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>1.91316</t>
+          <t>1.25972</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>1,99 USD</t>
+          <t>1,19 USD</t>
         </is>
       </c>
     </row>
@@ -4819,7 +4819,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>AUDUSD</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4829,27 +4829,27 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2023.11.23 11:00</t>
+          <t>2023.11.21 04:21</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>1.91398</t>
+          <t>0.65831</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2023.11.24 13:46</t>
+          <t>2023.11.24 15:54</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>1.91316</t>
+          <t>0.65788</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>-0,54 USD</t>
+          <t>-0,43 USD</t>
         </is>
       </c>
     </row>
@@ -4861,7 +4861,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>AUDUSD</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4871,27 +4871,27 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2023.11.23 11:00</t>
+          <t>2023.11.21 20:00</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>1.25597</t>
+          <t>0.65525</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2023.11.24 13:09</t>
+          <t>2023.11.24 15:54</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>1.25697</t>
+          <t>0.65788</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>1,00 USD</t>
+          <t>2,63 USD</t>
         </is>
       </c>
     </row>
@@ -4903,37 +4903,37 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2023.11.24 11:18</t>
+          <t>2023.11.24 13:09</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>1.79983</t>
+          <t>1.25725</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2023.11.24 13:06</t>
+          <t>2023.11.24 15:11</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>1.79883</t>
+          <t>1.25825</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>0,60 USD</t>
+          <t>1,00 USD</t>
         </is>
       </c>
     </row>
@@ -4945,12 +4945,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4960,22 +4960,22 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>1.71878</t>
+          <t>1.36827</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2023.11.24 11:50</t>
+          <t>2023.11.24 15:11</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>1.71978</t>
+          <t>1.36556</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>0,73 USD</t>
+          <t>1,98 USD</t>
         </is>
       </c>
     </row>
@@ -4987,7 +4987,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4997,27 +4997,27 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2023.11.24 02:00</t>
+          <t>2023.11.23 08:34</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>1.80124</t>
+          <t>1.36505</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2023.11.24 11:18</t>
+          <t>2023.11.24 15:11</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>1.80024</t>
+          <t>1.36556</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>0,60 USD</t>
+          <t>-0,37 USD</t>
         </is>
       </c>
     </row>
@@ -5029,37 +5029,37 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2023.11.23 11:00</t>
+          <t>2023.11.24 13:47</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>1.80582</t>
+          <t>1.91357</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2023.11.24 01:52</t>
+          <t>2023.11.24 14:15</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>1.80174</t>
+          <t>1.91457</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2,47 USD</t>
+          <t>0,66 USD</t>
         </is>
       </c>
     </row>
@@ -5071,37 +5071,37 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2023.11.23 08:00</t>
+          <t>2023.11.23 18:00</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>1.79986</t>
+          <t>1.91013</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2023.11.24 01:52</t>
+          <t>2023.11.24 13:46</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>1.80174</t>
+          <t>1.91316</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>-1,14 USD</t>
+          <t>1,99 USD</t>
         </is>
       </c>
     </row>
@@ -5113,7 +5113,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5123,27 +5123,27 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2023.11.23 10:30</t>
+          <t>2023.11.23 11:00</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>1.71586</t>
+          <t>1.91398</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2023.11.23 11:00</t>
+          <t>2023.11.24 13:46</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>1.71839</t>
+          <t>1.91316</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>1,85 USD</t>
+          <t>-0,54 USD</t>
         </is>
       </c>
     </row>
@@ -5155,7 +5155,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5165,27 +5165,27 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2023.11.23 10:30</t>
+          <t>2023.11.23 11:00</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>1.9123</t>
+          <t>1.25597</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2023.11.23 11:00</t>
+          <t>2023.11.24 13:09</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>1.91349</t>
+          <t>1.25697</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>0,78 USD</t>
+          <t>1,00 USD</t>
         </is>
       </c>
     </row>
@@ -5202,32 +5202,32 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2023.11.22 15:17</t>
+          <t>2023.11.24 11:18</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>1.80974</t>
+          <t>1.79983</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2023.11.23 10:59</t>
+          <t>2023.11.24 13:06</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>1.80569</t>
+          <t>1.79883</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>-2,45 USD</t>
+          <t>0,60 USD</t>
         </is>
       </c>
     </row>
@@ -5239,7 +5239,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5249,27 +5249,27 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2023.11.23 08:00</t>
+          <t>2023.11.23 11:00</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>1.8002</t>
+          <t>1.71878</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2023.11.23 10:59</t>
+          <t>2023.11.24 11:50</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>1.80569</t>
+          <t>1.71978</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>3,32 USD</t>
+          <t>0,73 USD</t>
         </is>
       </c>
     </row>
@@ -5286,32 +5286,32 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2023.11.23 03:00</t>
+          <t>2023.11.24 02:00</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>1.80383</t>
+          <t>1.80124</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2023.11.23 10:59</t>
+          <t>2023.11.24 11:18</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>1.80569</t>
+          <t>1.80024</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>1,13 USD</t>
+          <t>0,60 USD</t>
         </is>
       </c>
     </row>
@@ -5323,37 +5323,37 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2023.11.22 13:17</t>
+          <t>2023.11.23 11:00</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>1.7202</t>
+          <t>1.80582</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2023.11.23 10:30</t>
+          <t>2023.11.24 01:52</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>1.71727</t>
+          <t>1.80174</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>-2,14 USD</t>
+          <t>2,47 USD</t>
         </is>
       </c>
     </row>
@@ -5365,37 +5365,37 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2023.11.22 18:00</t>
+          <t>2023.11.23 08:00</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>1.71228</t>
+          <t>1.79986</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2023.11.23 10:30</t>
+          <t>2023.11.24 01:52</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>1.71727</t>
+          <t>1.80174</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>3,65 USD</t>
+          <t>-1,14 USD</t>
         </is>
       </c>
     </row>
@@ -5417,27 +5417,27 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2023.11.22 16:00</t>
+          <t>2023.11.23 10:30</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>1.71604</t>
+          <t>1.71586</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2023.11.23 10:30</t>
+          <t>2023.11.23 11:00</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>1.71727</t>
+          <t>1.71839</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>0,90 USD</t>
+          <t>1,85 USD</t>
         </is>
       </c>
     </row>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -5459,27 +5459,27 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2023.11.23 09:29</t>
+          <t>2023.11.23 10:30</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>1.25263</t>
+          <t>1.9123</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2023.11.23 10:30</t>
+          <t>2023.11.23 11:00</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>1.25363</t>
+          <t>1.91349</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>1,00 USD</t>
+          <t>0,78 USD</t>
         </is>
       </c>
     </row>
@@ -5491,7 +5491,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5501,27 +5501,27 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2023.11.22 14:00</t>
+          <t>2023.11.22 15:17</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>1.91042</t>
+          <t>1.80974</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2023.11.23 10:30</t>
+          <t>2023.11.23 10:59</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>1.90949</t>
+          <t>1.80569</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>-0,61 USD</t>
+          <t>-2,45 USD</t>
         </is>
       </c>
     </row>
@@ -5533,7 +5533,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -5543,27 +5543,27 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2023.11.23 07:00</t>
+          <t>2023.11.23 08:00</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>1.90635</t>
+          <t>1.8002</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2023.11.23 10:30</t>
+          <t>2023.11.23 10:59</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>1.90949</t>
+          <t>1.80569</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2,06 USD</t>
+          <t>3,32 USD</t>
         </is>
       </c>
     </row>
@@ -5575,7 +5575,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -5585,27 +5585,27 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2023.11.22 13:12</t>
+          <t>2023.11.23 03:00</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>1.25448</t>
+          <t>1.80383</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2023.11.23 09:29</t>
+          <t>2023.11.23 10:59</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>1.25242</t>
+          <t>1.80569</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>-2,06 USD</t>
+          <t>1,13 USD</t>
         </is>
       </c>
     </row>
@@ -5617,7 +5617,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -5627,27 +5627,27 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2023.11.22 16:00</t>
+          <t>2023.11.22 13:17</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>1.24816</t>
+          <t>1.7202</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2023.11.23 09:29</t>
+          <t>2023.11.23 10:30</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>1.25242</t>
+          <t>1.71727</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>4,26 USD</t>
+          <t>-2,14 USD</t>
         </is>
       </c>
     </row>
@@ -5659,37 +5659,37 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2023.11.23 07:00</t>
+          <t>2023.11.22 18:00</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>1.36632</t>
+          <t>1.71228</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2023.11.23 08:34</t>
+          <t>2023.11.23 10:30</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>1.36532</t>
+          <t>1.71727</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>0,73 USD</t>
+          <t>3,65 USD</t>
         </is>
       </c>
     </row>
@@ -5701,37 +5701,37 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2023.11.23 03:16</t>
+          <t>2023.11.22 16:00</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>1.9058</t>
+          <t>1.71604</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2023.11.23 08:28</t>
+          <t>2023.11.23 10:30</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>1.9048</t>
+          <t>1.71727</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>0,65 USD</t>
+          <t>0,90 USD</t>
         </is>
       </c>
     </row>
@@ -5743,37 +5743,37 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2023.11.23 07:00</t>
+          <t>2023.11.23 09:29</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>1.80055</t>
+          <t>1.25263</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2023.11.23 07:41</t>
+          <t>2023.11.23 10:30</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>1.79955</t>
+          <t>1.25363</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>0,61 USD</t>
+          <t>1,00 USD</t>
         </is>
       </c>
     </row>
@@ -5785,37 +5785,37 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2023.11.22 19:00</t>
+          <t>2023.11.22 14:00</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>1.71038</t>
+          <t>1.91042</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2023.11.23 07:37</t>
+          <t>2023.11.23 10:30</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>1.70938</t>
+          <t>1.90949</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>0,73 USD</t>
+          <t>-0,61 USD</t>
         </is>
       </c>
     </row>
@@ -5827,37 +5827,37 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2023.11.23 04:00</t>
+          <t>2023.11.23 07:00</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>1.80199</t>
+          <t>1.90635</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2023.11.23 06:47</t>
+          <t>2023.11.23 10:30</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>1.80099</t>
+          <t>1.90949</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>0,60 USD</t>
+          <t>2,06 USD</t>
         </is>
       </c>
     </row>
@@ -5869,37 +5869,37 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2023.11.22 21:58</t>
+          <t>2023.11.22 13:12</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>1.36916</t>
+          <t>1.25448</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2023.11.23 06:21</t>
+          <t>2023.11.23 09:29</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>1.36816</t>
+          <t>1.25242</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>0,73 USD</t>
+          <t>-2,06 USD</t>
         </is>
       </c>
     </row>
@@ -5911,37 +5911,37 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2023.11.23 03:00</t>
+          <t>2023.11.22 16:00</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>1.80342</t>
+          <t>1.24816</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2023.11.23 04:00</t>
+          <t>2023.11.23 09:29</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>1.80237</t>
+          <t>1.25242</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>0,64 USD</t>
+          <t>4,26 USD</t>
         </is>
       </c>
     </row>
@@ -5953,7 +5953,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -5963,27 +5963,27 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>2023.11.22 16:45</t>
+          <t>2023.11.23 07:00</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>1.90722</t>
+          <t>1.36632</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2023.11.23 03:16</t>
+          <t>2023.11.23 08:34</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>1.90622</t>
+          <t>1.36532</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>0,65 USD</t>
+          <t>0,73 USD</t>
         </is>
       </c>
     </row>
@@ -5995,7 +5995,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6005,27 +6005,27 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2023.11.23 02:27</t>
+          <t>2023.11.23 03:16</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>1.8048</t>
+          <t>1.9058</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2023.11.23 03:00</t>
+          <t>2023.11.23 08:28</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>1.80383</t>
+          <t>1.9048</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>0,59 USD</t>
+          <t>0,65 USD</t>
         </is>
       </c>
     </row>
@@ -6047,27 +6047,27 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>2023.11.22 15:00</t>
+          <t>2023.11.23 07:00</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>1.80823</t>
+          <t>1.80055</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2023.11.23 02:27</t>
+          <t>2023.11.23 07:41</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>1.80519</t>
+          <t>1.79955</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>1,83 USD</t>
+          <t>0,61 USD</t>
         </is>
       </c>
     </row>
@@ -6079,7 +6079,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6089,27 +6089,27 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2023.11.22 12:17</t>
+          <t>2023.11.22 19:00</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>1.80434</t>
+          <t>1.71038</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2023.11.23 02:27</t>
+          <t>2023.11.23 07:37</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>1.80519</t>
+          <t>1.70938</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>-0,52 USD</t>
+          <t>0,73 USD</t>
         </is>
       </c>
     </row>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6131,27 +6131,27 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>2023.11.21 15:54</t>
+          <t>2023.11.23 04:00</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>1.36906</t>
+          <t>1.80199</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2023.11.22 21:58</t>
+          <t>2023.11.23 06:47</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>1.3695</t>
+          <t>1.80099</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>-0,32 USD</t>
+          <t>0,60 USD</t>
         </is>
       </c>
     </row>
@@ -6173,27 +6173,27 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>2023.11.22 08:00</t>
+          <t>2023.11.22 21:58</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>1.37213</t>
+          <t>1.36916</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2023.11.22 21:58</t>
+          <t>2023.11.23 06:21</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>1.3695</t>
+          <t>1.36816</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>1,92 USD</t>
+          <t>0,73 USD</t>
         </is>
       </c>
     </row>
@@ -6205,7 +6205,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6215,27 +6215,27 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>2023.11.22 16:49</t>
+          <t>2023.11.23 03:00</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>1.71174</t>
+          <t>1.80342</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2023.11.22 19:00</t>
+          <t>2023.11.23 04:00</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>1.71074</t>
+          <t>1.80237</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>0,73 USD</t>
+          <t>0,64 USD</t>
         </is>
       </c>
     </row>
@@ -6247,7 +6247,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -6257,39 +6257,39 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>2023.11.17 17:00</t>
+          <t>2023.11.22 16:45</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>1.70683</t>
+          <t>1.90722</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2023.11.22 16:49</t>
+          <t>2023.11.23 03:16</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>1.7121</t>
+          <t>1.90622</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>-3,83 USD</t>
+          <t>0,65 USD</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -6299,39 +6299,39 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>2023.11.20 16:00</t>
+          <t>2023.11.23 02:27</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>1.71619</t>
+          <t>1.8048</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2023.11.22 16:49</t>
+          <t>2023.11.23 03:00</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>1.7121</t>
+          <t>1.80383</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>5,95 USD</t>
+          <t>0,59 USD</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -6341,27 +6341,27 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>2023.11.21 11:00</t>
+          <t>2023.11.22 15:00</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>1.72016</t>
+          <t>1.80823</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2023.11.22 16:49</t>
+          <t>2023.11.23 02:27</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>1.7121</t>
+          <t>1.80519</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>11,73 USD</t>
+          <t>1,83 USD</t>
         </is>
       </c>
     </row>
@@ -6373,7 +6373,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -6383,27 +6383,27 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>2023.11.17 09:53</t>
+          <t>2023.11.22 12:17</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>1.70245</t>
+          <t>1.80434</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2023.11.22 16:49</t>
+          <t>2023.11.23 02:27</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>1.7121</t>
+          <t>1.80519</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>-7,02 USD</t>
+          <t>-0,52 USD</t>
         </is>
       </c>
     </row>
@@ -6415,7 +6415,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -6425,27 +6425,27 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>2023.11.20 07:00</t>
+          <t>2023.11.21 15:54</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>1.71041</t>
+          <t>1.36906</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2023.11.22 16:49</t>
+          <t>2023.11.22 21:58</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>1.7121</t>
+          <t>1.3695</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>-1,22 USD</t>
+          <t>-0,32 USD</t>
         </is>
       </c>
     </row>
@@ -6457,7 +6457,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -6467,27 +6467,27 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>2023.11.22 12:10</t>
+          <t>2023.11.22 08:00</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>1.90853</t>
+          <t>1.37213</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2023.11.22 16:45</t>
+          <t>2023.11.22 21:58</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>1.90753</t>
+          <t>1.3695</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>0,66 USD</t>
+          <t>1,92 USD</t>
         </is>
       </c>
     </row>
@@ -6499,37 +6499,37 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>2023.11.17 20:00</t>
+          <t>2023.11.22 16:49</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>1.37156</t>
+          <t>1.71174</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2023.11.22 16:02</t>
+          <t>2023.11.22 19:00</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>1.37575</t>
+          <t>1.71074</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>3,05 USD</t>
+          <t>0,73 USD</t>
         </is>
       </c>
     </row>
@@ -6541,121 +6541,121 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>2023.11.16 18:00</t>
+          <t>2023.11.17 17:00</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>1.37774</t>
+          <t>1.70683</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2023.11.22 16:02</t>
+          <t>2023.11.22 16:49</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>1.37575</t>
+          <t>1.7121</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>-1,45 USD</t>
+          <t>-3,83 USD</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2023.11.17 10:00</t>
+          <t>2023.11.20 16:00</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>1.37466</t>
+          <t>1.71619</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2023.11.22 16:02</t>
+          <t>2023.11.22 16:49</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>1.37575</t>
+          <t>1.7121</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>0,79 USD</t>
+          <t>5,95 USD</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>2023.11.22 12:00</t>
+          <t>2023.11.21 11:00</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>1.80641</t>
+          <t>1.72016</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2023.11.22 15:17</t>
+          <t>2023.11.22 16:49</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>1.80942</t>
+          <t>1.7121</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>1,81 USD</t>
+          <t>11,73 USD</t>
         </is>
       </c>
     </row>
@@ -6667,37 +6667,37 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>2023.11.22 09:00</t>
+          <t>2023.11.17 09:53</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>1.81023</t>
+          <t>1.70245</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2023.11.22 15:17</t>
+          <t>2023.11.22 16:49</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>1.80942</t>
+          <t>1.7121</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>-0,49 USD</t>
+          <t>-7,02 USD</t>
         </is>
       </c>
     </row>
@@ -6709,37 +6709,37 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>2023.11.22 13:00</t>
+          <t>2023.11.20 07:00</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>1.90996</t>
+          <t>1.71041</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2023.11.22 13:48</t>
+          <t>2023.11.22 16:49</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>1.91096</t>
+          <t>1.7121</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>0,66 USD</t>
+          <t>-1,22 USD</t>
         </is>
       </c>
     </row>
@@ -6751,37 +6751,37 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>2023.11.21 14:01</t>
+          <t>2023.11.22 12:10</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>1.72112</t>
+          <t>1.90853</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2023.11.22 13:17</t>
+          <t>2023.11.22 16:45</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>1.71988</t>
+          <t>1.90753</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>-0,90 USD</t>
+          <t>0,66 USD</t>
         </is>
       </c>
     </row>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -6803,27 +6803,27 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2023.11.21 17:00</t>
+          <t>2023.11.17 20:00</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>1.71644</t>
+          <t>1.37156</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2023.11.22 13:17</t>
+          <t>2023.11.22 16:02</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>1.71988</t>
+          <t>1.37575</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>2,51 USD</t>
+          <t>3,05 USD</t>
         </is>
       </c>
     </row>
@@ -6835,7 +6835,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -6845,27 +6845,27 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>2023.11.21 11:40</t>
+          <t>2023.11.16 18:00</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>1.25499</t>
+          <t>1.37774</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2023.11.22 13:12</t>
+          <t>2023.11.22 16:02</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>1.25432</t>
+          <t>1.37575</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>-0,67 USD</t>
+          <t>-1,45 USD</t>
         </is>
       </c>
     </row>
@@ -6877,7 +6877,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -6887,27 +6887,27 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>2023.11.22 10:00</t>
+          <t>2023.11.17 10:00</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>1.25145</t>
+          <t>1.37466</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2023.11.22 13:12</t>
+          <t>2023.11.22 16:02</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>1.25432</t>
+          <t>1.37575</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>2,87 USD</t>
+          <t>0,79 USD</t>
         </is>
       </c>
     </row>
@@ -6924,32 +6924,32 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>2023.11.22 09:00</t>
+          <t>2023.11.22 12:00</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>1.81002</t>
+          <t>1.80641</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2023.11.22 12:17</t>
+          <t>2023.11.22 15:17</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>1.80479</t>
+          <t>1.80942</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>3,16 USD</t>
+          <t>1,81 USD</t>
         </is>
       </c>
     </row>
@@ -6966,32 +6966,32 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>2023.11.22 06:00</t>
+          <t>2023.11.22 09:00</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>1.80591</t>
+          <t>1.81023</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2023.11.22 12:17</t>
+          <t>2023.11.22 15:17</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>1.80479</t>
+          <t>1.80942</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>0,67 USD</t>
+          <t>-0,49 USD</t>
         </is>
       </c>
     </row>
@@ -7003,37 +7003,37 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2023.11.22 02:15</t>
+          <t>2023.11.22 13:00</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>1.80173</t>
+          <t>1.90996</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2023.11.22 12:17</t>
+          <t>2023.11.22 13:48</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>1.80479</t>
+          <t>1.91096</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>-1,85 USD</t>
+          <t>0,66 USD</t>
         </is>
       </c>
     </row>
@@ -7045,37 +7045,37 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>2023.11.21 17:00</t>
+          <t>2023.11.21 14:01</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>1.91026</t>
+          <t>1.72112</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2023.11.22 12:10</t>
+          <t>2023.11.22 13:17</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>1.90882</t>
+          <t>1.71988</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>0,95 USD</t>
+          <t>-0,90 USD</t>
         </is>
       </c>
     </row>
@@ -7087,37 +7087,37 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>2023.11.21 16:00</t>
+          <t>2023.11.21 17:00</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>1.90483</t>
+          <t>1.71644</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2023.11.22 12:10</t>
+          <t>2023.11.22 13:17</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>1.90882</t>
+          <t>1.71988</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>-2,62 USD</t>
+          <t>2,51 USD</t>
         </is>
       </c>
     </row>
@@ -7129,37 +7129,37 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>2023.11.22 07:00</t>
+          <t>2023.11.21 11:40</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>1.91467</t>
+          <t>1.25499</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2023.11.22 12:10</t>
+          <t>2023.11.22 13:12</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>1.90882</t>
+          <t>1.25432</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>3,85 USD</t>
+          <t>-0,67 USD</t>
         </is>
       </c>
     </row>
@@ -7171,7 +7171,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -7181,34 +7181,34 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>2023.11.22 08:00</t>
+          <t>2023.11.22 10:00</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>1.91599</t>
+          <t>1.25145</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2023.11.22 09:17</t>
+          <t>2023.11.22 13:12</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>1.91699</t>
+          <t>1.25432</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>0,65 USD</t>
+          <t>2,87 USD</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -7218,39 +7218,39 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>2023.11.21 10:00</t>
+          <t>2023.11.22 09:00</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>1.80202</t>
+          <t>1.81002</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2023.11.22 09:00</t>
+          <t>2023.11.22 12:17</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>1.81007</t>
+          <t>1.80479</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>9,71 USD</t>
+          <t>3,16 USD</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -7260,32 +7260,32 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>2023.11.21 04:00</t>
+          <t>2023.11.22 06:00</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>1.8066</t>
+          <t>1.80591</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2023.11.22 09:00</t>
+          <t>2023.11.22 12:17</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>1.81007</t>
+          <t>1.80479</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>4,19 USD</t>
+          <t>0,67 USD</t>
         </is>
       </c>
     </row>
@@ -7302,32 +7302,32 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>2023.11.21 02:00</t>
+          <t>2023.11.22 02:15</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>1.81103</t>
+          <t>1.80173</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2023.11.22 09:00</t>
+          <t>2023.11.22 12:17</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>1.81007</t>
+          <t>1.80479</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>-0,58 USD</t>
+          <t>-1,85 USD</t>
         </is>
       </c>
     </row>
@@ -7339,37 +7339,37 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>2023.11.20 20:00</t>
+          <t>2023.11.21 17:00</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>1.81528</t>
+          <t>1.91026</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2023.11.22 09:00</t>
+          <t>2023.11.22 12:10</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>1.81007</t>
+          <t>1.90882</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>-3,14 USD</t>
+          <t>0,95 USD</t>
         </is>
       </c>
     </row>
@@ -7381,37 +7381,37 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>EURNZD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>2023.11.20 15:35</t>
+          <t>2023.11.21 16:00</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>1.81922</t>
+          <t>1.90483</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2023.11.22 09:00</t>
+          <t>2023.11.22 12:10</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>1.81007</t>
+          <t>1.90882</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>-5,52 USD</t>
+          <t>-2,62 USD</t>
         </is>
       </c>
     </row>
@@ -7428,7 +7428,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -7438,22 +7438,22 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>1.915</t>
+          <t>1.91467</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2023.11.22 07:17</t>
+          <t>2023.11.22 12:10</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>1.916</t>
+          <t>1.90882</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>0,65 USD</t>
+          <t>3,85 USD</t>
         </is>
       </c>
     </row>
@@ -7475,22 +7475,22 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>2023.11.22 03:10</t>
+          <t>2023.11.22 08:00</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>1.91395</t>
+          <t>1.91599</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2023.11.22 06:56</t>
+          <t>2023.11.22 09:17</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>1.91495</t>
+          <t>1.91699</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -7502,12 +7502,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -7517,34 +7517,34 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>2023.11.21 21:00</t>
+          <t>2023.11.21 10:00</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>1.91252</t>
+          <t>1.80202</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2023.11.22 03:10</t>
+          <t>2023.11.22 09:00</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>1.91352</t>
+          <t>1.81007</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>0,66 USD</t>
+          <t>9,71 USD</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -7554,32 +7554,32 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>2023.11.21 20:00</t>
+          <t>2023.11.21 04:00</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>1.80513</t>
+          <t>1.8066</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2023.11.22 02:15</t>
+          <t>2023.11.22 09:00</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>1.80219</t>
+          <t>1.81007</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>1,78 USD</t>
+          <t>4,19 USD</t>
         </is>
       </c>
     </row>
@@ -7596,32 +7596,32 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>2023.11.21 16:00</t>
+          <t>2023.11.21 02:00</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>1.80145</t>
+          <t>1.81103</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2023.11.22 02:15</t>
+          <t>2023.11.22 09:00</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>1.80219</t>
+          <t>1.81007</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>-0,45 USD</t>
+          <t>-0,58 USD</t>
         </is>
       </c>
     </row>
@@ -7633,7 +7633,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>EURNZD</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -7643,67 +7643,361 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>2023.11.21 19:00</t>
+          <t>2023.11.20 20:00</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>1.91251</t>
+          <t>1.81528</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2023.11.21 19:24</t>
+          <t>2023.11.22 09:00</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>1.91351</t>
+          <t>1.81007</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>0,65 USD</t>
+          <t>-3,14 USD</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>EURNZD</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2023.11.20 15:35</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>1.81922</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2023.11.22 09:00</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>1.81007</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>-5,52 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>GBPAUD</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:00</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>1.915</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:17</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>1.916</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>0,65 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>GBPAUD</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2023.11.22 03:10</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>1.91395</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2023.11.22 06:56</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>1.91495</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>0,65 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>GBPAUD</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2023.11.21 21:00</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>1.91252</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2023.11.22 03:10</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>1.91352</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>0,66 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>EURNZD</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2023.11.21 20:00</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>1.80513</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2023.11.22 02:15</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>1.80219</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>1,78 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>EURNZD</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2023.11.21 16:00</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>1.80145</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2023.11.22 02:15</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>1.80219</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>-0,45 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>GBPAUD</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2023.11.21 19:00</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>1.91251</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2023.11.21 19:24</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>1.91351</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>0,65 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
           <t>0,02</t>
         </is>
       </c>
-      <c r="B173" t="inlineStr">
+      <c r="B180" t="inlineStr">
         <is>
           <t>GBPAUD</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
         <is>
           <t>2023.11.20 09:00</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr">
+      <c r="E180" t="inlineStr">
         <is>
           <t>1.90374</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
+      <c r="F180" t="inlineStr">
         <is>
           <t>2023.11.21 18:48</t>
         </is>
       </c>
-      <c r="G173" t="inlineStr">
+      <c r="G180" t="inlineStr">
         <is>
           <t>1.91163</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
+      <c r="H180" t="inlineStr">
         <is>
           <t>10,35 USD</t>
         </is>
